--- a/template.xlsx
+++ b/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27716"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\OneDrive\Bureau\git_repo\pointage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\OneDrive\Bureau\git_repo\pointage_for_windows\pointage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0C4E11-1107-4359-93A8-0C180AA13E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7B1112-CED5-49DA-80DB-3EE6FD4DA9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t xml:space="preserve">FEUILLE  DE  POINTAGE </t>
   </si>
@@ -153,12 +153,15 @@
   <si>
     <t>#REF!</t>
   </si>
+  <si>
+    <t>FDS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -318,12 +321,6 @@
       <name val="Times New Roman"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial Black"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -368,25 +365,6 @@
       <name val="Times New Roman"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial Black"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="Arial Black"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial Black"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
@@ -454,6 +432,33 @@
       <sz val="11"/>
       <color rgb="FFFF6600"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aldhabi"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF800080"/>
+      <name val="Aldhabi"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF800080"/>
+      <name val="Aldhabi"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFC00000"/>
+      <name val="Aldhabi"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aldhabi"/>
     </font>
   </fonts>
   <fills count="7">
@@ -494,7 +499,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -803,36 +808,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -895,21 +870,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -1079,11 +1039,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1150,114 +1125,93 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1269,21 +1223,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="43" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="39" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1291,7 +1245,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1303,20 +1257,20 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1329,7 +1283,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1384,49 +1338,67 @@
     <xf numFmtId="14" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1739,11 +1711,11 @@
   </sheetPr>
   <dimension ref="A1:AU1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.90625" customWidth="1"/>
     <col min="2" max="32" width="3" customWidth="1"/>
@@ -1763,65 +1735,65 @@
   <sheetData>
     <row r="1" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M2" s="111" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
-      <c r="AB2" s="112"/>
-      <c r="AC2" s="113"/>
+      <c r="M2" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="105"/>
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="105"/>
+      <c r="AA2" s="105"/>
+      <c r="AB2" s="105"/>
+      <c r="AC2" s="106"/>
     </row>
     <row r="3" spans="1:47" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M3" s="114"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="115"/>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="115"/>
-      <c r="T3" s="115"/>
-      <c r="U3" s="115"/>
-      <c r="V3" s="115"/>
-      <c r="W3" s="115"/>
-      <c r="X3" s="115"/>
-      <c r="Y3" s="115"/>
-      <c r="Z3" s="115"/>
-      <c r="AA3" s="115"/>
-      <c r="AB3" s="115"/>
-      <c r="AC3" s="116"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="108"/>
+      <c r="V3" s="108"/>
+      <c r="W3" s="108"/>
+      <c r="X3" s="108"/>
+      <c r="Y3" s="108"/>
+      <c r="Z3" s="108"/>
+      <c r="AA3" s="108"/>
+      <c r="AB3" s="108"/>
+      <c r="AC3" s="109"/>
     </row>
-    <row r="4" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="4" spans="1:47" ht="31" customHeight="1" x14ac:dyDescent="0.8">
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
-      <c r="AI4" s="117" t="s">
+      <c r="AI4" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="AJ4" s="71"/>
-      <c r="AK4" s="71"/>
-      <c r="AL4" s="71"/>
-      <c r="AM4" s="71"/>
-      <c r="AN4" s="104"/>
-      <c r="AO4" s="118"/>
-      <c r="AP4" s="80"/>
-      <c r="AQ4" s="80"/>
-      <c r="AR4" s="80"/>
-      <c r="AS4" s="80"/>
-      <c r="AT4" s="81"/>
+      <c r="AJ4" s="64"/>
+      <c r="AK4" s="64"/>
+      <c r="AL4" s="64"/>
+      <c r="AM4" s="64"/>
+      <c r="AN4" s="97"/>
+      <c r="AO4" s="111"/>
+      <c r="AP4" s="73"/>
+      <c r="AQ4" s="73"/>
+      <c r="AR4" s="73"/>
+      <c r="AS4" s="73"/>
+      <c r="AT4" s="74"/>
     </row>
-    <row r="5" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1842,12 +1814,12 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="119" t="s">
+      <c r="U5" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="V5" s="102"/>
-      <c r="W5" s="102"/>
-      <c r="X5" s="103"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
+      <c r="X5" s="96"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
@@ -1872,165 +1844,165 @@
       <c r="AT5" s="2"/>
       <c r="AU5" s="2"/>
     </row>
-    <row r="6" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:47" ht="21.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="81"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="74"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="120"/>
-      <c r="V6" s="83"/>
-      <c r="W6" s="83"/>
-      <c r="X6" s="96"/>
-      <c r="AB6" s="93" t="s">
+      <c r="U6" s="113"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="89"/>
+      <c r="AB6" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AC6" s="71"/>
-      <c r="AD6" s="71"/>
-      <c r="AE6" s="71"/>
-      <c r="AG6" s="121"/>
-      <c r="AH6" s="80"/>
-      <c r="AI6" s="80"/>
-      <c r="AJ6" s="81"/>
+      <c r="AC6" s="64"/>
+      <c r="AD6" s="64"/>
+      <c r="AE6" s="64"/>
+      <c r="AG6" s="114"/>
+      <c r="AH6" s="73"/>
+      <c r="AI6" s="73"/>
+      <c r="AJ6" s="74"/>
       <c r="AK6" s="6"/>
     </row>
-    <row r="7" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:47" ht="25.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="81"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="74"/>
       <c r="AT7" s="7"/>
     </row>
-    <row r="8" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:47" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="99"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="80"/>
-      <c r="N8" s="81"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="98"/>
-      <c r="T8" s="81"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="74"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="97"/>
+      <c r="S8" s="91"/>
+      <c r="T8" s="74"/>
       <c r="U8" s="8"/>
-      <c r="V8" s="110"/>
-      <c r="W8" s="104"/>
-      <c r="X8" s="98"/>
-      <c r="Y8" s="81"/>
-      <c r="AB8" s="100" t="s">
+      <c r="V8" s="103"/>
+      <c r="W8" s="97"/>
+      <c r="X8" s="91"/>
+      <c r="Y8" s="74"/>
+      <c r="AB8" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="AC8" s="71"/>
-      <c r="AD8" s="71"/>
-      <c r="AE8" s="71"/>
-      <c r="AG8" s="101"/>
-      <c r="AH8" s="102"/>
-      <c r="AI8" s="102"/>
-      <c r="AJ8" s="103"/>
+      <c r="AC8" s="64"/>
+      <c r="AD8" s="64"/>
+      <c r="AE8" s="64"/>
+      <c r="AG8" s="94"/>
+      <c r="AH8" s="95"/>
+      <c r="AI8" s="95"/>
+      <c r="AJ8" s="96"/>
       <c r="AK8" s="9"/>
     </row>
     <row r="9" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AB9" s="100" t="s">
+      <c r="AB9" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="AC9" s="71"/>
-      <c r="AD9" s="71"/>
-      <c r="AE9" s="71"/>
-      <c r="AF9" s="104"/>
-      <c r="AG9" s="105"/>
-      <c r="AH9" s="80"/>
-      <c r="AI9" s="80"/>
-      <c r="AJ9" s="80"/>
-      <c r="AK9" s="80"/>
-      <c r="AL9" s="80"/>
-      <c r="AM9" s="81"/>
+      <c r="AC9" s="64"/>
+      <c r="AD9" s="64"/>
+      <c r="AE9" s="64"/>
+      <c r="AF9" s="97"/>
+      <c r="AG9" s="98"/>
+      <c r="AH9" s="73"/>
+      <c r="AI9" s="73"/>
+      <c r="AJ9" s="73"/>
+      <c r="AK9" s="73"/>
+      <c r="AL9" s="73"/>
+      <c r="AM9" s="74"/>
     </row>
-    <row r="10" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:47" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="99"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="80"/>
-      <c r="S10" s="80"/>
-      <c r="T10" s="80"/>
-      <c r="U10" s="80"/>
-      <c r="V10" s="80"/>
-      <c r="W10" s="80"/>
-      <c r="X10" s="81"/>
-      <c r="AB10" s="100" t="s">
+      <c r="B10" s="92"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="73"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="73"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="73"/>
+      <c r="X10" s="74"/>
+      <c r="AB10" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="AC10" s="71"/>
-      <c r="AD10" s="71"/>
-      <c r="AE10" s="71"/>
-      <c r="AG10" s="106"/>
-      <c r="AH10" s="107"/>
-      <c r="AI10" s="107"/>
-      <c r="AJ10" s="108"/>
+      <c r="AC10" s="64"/>
+      <c r="AD10" s="64"/>
+      <c r="AE10" s="64"/>
+      <c r="AG10" s="99"/>
+      <c r="AH10" s="100"/>
+      <c r="AI10" s="100"/>
+      <c r="AJ10" s="101"/>
       <c r="AK10" s="10"/>
     </row>
     <row r="11" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AB11" s="93" t="s">
+      <c r="AB11" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="AC11" s="71"/>
-      <c r="AD11" s="71"/>
-      <c r="AE11" s="71"/>
-      <c r="AG11" s="94"/>
-      <c r="AH11" s="81"/>
+      <c r="AC11" s="64"/>
+      <c r="AD11" s="64"/>
+      <c r="AE11" s="64"/>
+      <c r="AG11" s="87"/>
+      <c r="AH11" s="74"/>
     </row>
     <row r="12" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AG12" s="11"/>
@@ -2172,1536 +2144,1538 @@
       <c r="AS13" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="AT13" s="95" t="s">
+      <c r="AT13" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="AU13" s="96"/>
+      <c r="AU13" s="89"/>
     </row>
-    <row r="14" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="1.2">
       <c r="A14" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="26"/>
-      <c r="AC14" s="26"/>
-      <c r="AD14" s="25"/>
-      <c r="AE14" s="26"/>
-      <c r="AF14" s="26"/>
-      <c r="AG14" s="27">
+      <c r="B14" s="131"/>
+      <c r="C14" s="131"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="131"/>
+      <c r="J14" s="131"/>
+      <c r="K14" s="131"/>
+      <c r="L14" s="131"/>
+      <c r="M14" s="131"/>
+      <c r="N14" s="131"/>
+      <c r="O14" s="131" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" s="131"/>
+      <c r="Q14" s="131"/>
+      <c r="R14" s="131"/>
+      <c r="S14" s="131"/>
+      <c r="T14" s="132"/>
+      <c r="U14" s="131"/>
+      <c r="V14" s="131"/>
+      <c r="W14" s="131"/>
+      <c r="X14" s="131"/>
+      <c r="Y14" s="131"/>
+      <c r="Z14" s="131"/>
+      <c r="AA14" s="131"/>
+      <c r="AB14" s="131"/>
+      <c r="AC14" s="131"/>
+      <c r="AD14" s="131"/>
+      <c r="AE14" s="131"/>
+      <c r="AF14" s="131"/>
+      <c r="AG14" s="25">
         <f t="shared" ref="AG14:AS14" si="0">COUNTIF($B14:$AF14,AG$13)</f>
         <v>0</v>
       </c>
-      <c r="AH14" s="28">
+      <c r="AH14" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI14" s="29">
+      <c r="AI14" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ14" s="30">
+      <c r="AJ14" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK14" s="30">
+      <c r="AK14" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL14" s="31">
+      <c r="AL14" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM14" s="32">
+      <c r="AM14" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AN14" s="33">
+      <c r="AN14" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO14" s="31">
+      <c r="AO14" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AP14" s="33">
+      <c r="AP14" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AQ14" s="33">
+      <c r="AQ14" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AR14" s="33">
+      <c r="AR14" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AS14" s="33">
+      <c r="AS14" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AT14" s="97"/>
-      <c r="AU14" s="86"/>
+      <c r="AT14" s="90"/>
+      <c r="AU14" s="79"/>
     </row>
-    <row r="15" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+    <row r="15" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="1.2">
+      <c r="A15" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="26"/>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="35"/>
-      <c r="AF15" s="36"/>
-      <c r="AG15" s="37">
+      <c r="B15" s="131"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="131"/>
+      <c r="K15" s="131"/>
+      <c r="L15" s="131"/>
+      <c r="M15" s="131"/>
+      <c r="N15" s="131"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="131"/>
+      <c r="Q15" s="131"/>
+      <c r="R15" s="131"/>
+      <c r="S15" s="131"/>
+      <c r="T15" s="131"/>
+      <c r="U15" s="131"/>
+      <c r="V15" s="131"/>
+      <c r="W15" s="131"/>
+      <c r="X15" s="131"/>
+      <c r="Y15" s="131"/>
+      <c r="Z15" s="131"/>
+      <c r="AA15" s="132"/>
+      <c r="AB15" s="131"/>
+      <c r="AC15" s="131"/>
+      <c r="AD15" s="131"/>
+      <c r="AE15" s="133"/>
+      <c r="AF15" s="133"/>
+      <c r="AG15" s="33">
         <f t="shared" ref="AG15:AS15" si="1">COUNTIF($B15:$AF15,AG$13)</f>
         <v>0</v>
       </c>
-      <c r="AH15" s="38">
+      <c r="AH15" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI15" s="39">
+      <c r="AI15" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AJ15" s="40">
+      <c r="AJ15" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK15" s="40">
+      <c r="AK15" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL15" s="41">
+      <c r="AL15" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM15" s="42">
+      <c r="AM15" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN15" s="43">
+      <c r="AN15" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AO15" s="41">
+      <c r="AO15" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AP15" s="43">
+      <c r="AP15" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AQ15" s="43">
+      <c r="AQ15" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AR15" s="43">
+      <c r="AR15" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AS15" s="43">
+      <c r="AS15" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AT15" s="87"/>
-      <c r="AU15" s="88"/>
+      <c r="AT15" s="80"/>
+      <c r="AU15" s="81"/>
     </row>
     <row r="16" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="26"/>
-      <c r="AC16" s="26"/>
-      <c r="AD16" s="25"/>
-      <c r="AE16" s="26"/>
-      <c r="AF16" s="26"/>
-      <c r="AG16" s="37">
+      <c r="B16" s="131"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="131"/>
+      <c r="K16" s="131"/>
+      <c r="L16" s="131"/>
+      <c r="M16" s="131"/>
+      <c r="N16" s="131"/>
+      <c r="O16" s="131"/>
+      <c r="P16" s="131"/>
+      <c r="Q16" s="131"/>
+      <c r="R16" s="131"/>
+      <c r="S16" s="131"/>
+      <c r="T16" s="131"/>
+      <c r="U16" s="131"/>
+      <c r="V16" s="131"/>
+      <c r="W16" s="131"/>
+      <c r="X16" s="131"/>
+      <c r="Y16" s="131"/>
+      <c r="Z16" s="131"/>
+      <c r="AA16" s="131"/>
+      <c r="AB16" s="131"/>
+      <c r="AC16" s="131"/>
+      <c r="AD16" s="131"/>
+      <c r="AE16" s="131"/>
+      <c r="AF16" s="131"/>
+      <c r="AG16" s="33">
         <f t="shared" ref="AG16:AS16" si="2">COUNTIF($B16:$AF16,AG$13)</f>
         <v>0</v>
       </c>
-      <c r="AH16" s="38">
+      <c r="AH16" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AI16" s="39">
+      <c r="AI16" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AJ16" s="40">
+      <c r="AJ16" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK16" s="40">
+      <c r="AK16" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL16" s="41">
+      <c r="AL16" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AM16" s="42">
+      <c r="AM16" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN16" s="43">
+      <c r="AN16" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO16" s="41">
+      <c r="AO16" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AP16" s="43">
+      <c r="AP16" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AQ16" s="43">
+      <c r="AQ16" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AR16" s="43">
+      <c r="AR16" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AS16" s="43">
+      <c r="AS16" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AT16" s="87"/>
-      <c r="AU16" s="88"/>
+      <c r="AT16" s="80"/>
+      <c r="AU16" s="81"/>
     </row>
     <row r="17" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="26"/>
-      <c r="AD17" s="26"/>
-      <c r="AE17" s="26"/>
-      <c r="AF17" s="36"/>
-      <c r="AG17" s="37">
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="131"/>
+      <c r="M17" s="131"/>
+      <c r="N17" s="131"/>
+      <c r="O17" s="131"/>
+      <c r="P17" s="131"/>
+      <c r="Q17" s="131"/>
+      <c r="R17" s="131"/>
+      <c r="S17" s="131"/>
+      <c r="T17" s="131"/>
+      <c r="U17" s="131"/>
+      <c r="V17" s="131"/>
+      <c r="W17" s="131"/>
+      <c r="X17" s="131"/>
+      <c r="Y17" s="131"/>
+      <c r="Z17" s="131"/>
+      <c r="AA17" s="131"/>
+      <c r="AB17" s="131"/>
+      <c r="AC17" s="131"/>
+      <c r="AD17" s="131"/>
+      <c r="AE17" s="131"/>
+      <c r="AF17" s="133"/>
+      <c r="AG17" s="33">
         <f t="shared" ref="AG17:AS17" si="3">COUNTIF($B17:$AF17,AG$13)</f>
         <v>0</v>
       </c>
-      <c r="AH17" s="38">
+      <c r="AH17" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI17" s="39">
+      <c r="AI17" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ17" s="40">
+      <c r="AJ17" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AK17" s="40">
+      <c r="AK17" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AL17" s="41">
+      <c r="AL17" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AM17" s="42">
+      <c r="AM17" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AN17" s="43">
+      <c r="AN17" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AO17" s="41">
+      <c r="AO17" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AP17" s="43">
+      <c r="AP17" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AQ17" s="43">
+      <c r="AQ17" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AR17" s="43">
+      <c r="AR17" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AS17" s="43">
+      <c r="AS17" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AT17" s="87"/>
-      <c r="AU17" s="88"/>
+      <c r="AT17" s="80"/>
+      <c r="AU17" s="81"/>
     </row>
     <row r="18" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="26"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="26"/>
-      <c r="AC18" s="26"/>
-      <c r="AD18" s="26"/>
-      <c r="AE18" s="26"/>
-      <c r="AF18" s="26"/>
-      <c r="AG18" s="37">
+      <c r="B18" s="131"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="131"/>
+      <c r="J18" s="131"/>
+      <c r="K18" s="131"/>
+      <c r="L18" s="131"/>
+      <c r="M18" s="131"/>
+      <c r="N18" s="131"/>
+      <c r="O18" s="131"/>
+      <c r="P18" s="131"/>
+      <c r="Q18" s="131"/>
+      <c r="R18" s="131"/>
+      <c r="S18" s="131"/>
+      <c r="T18" s="131"/>
+      <c r="U18" s="131"/>
+      <c r="V18" s="131"/>
+      <c r="W18" s="131"/>
+      <c r="X18" s="131"/>
+      <c r="Y18" s="131"/>
+      <c r="Z18" s="131"/>
+      <c r="AA18" s="131"/>
+      <c r="AB18" s="131"/>
+      <c r="AC18" s="131"/>
+      <c r="AD18" s="131"/>
+      <c r="AE18" s="131"/>
+      <c r="AF18" s="131"/>
+      <c r="AG18" s="33">
         <f t="shared" ref="AG18:AS18" si="4">COUNTIF($B18:$AF18,AG$13)</f>
         <v>0</v>
       </c>
-      <c r="AH18" s="38">
+      <c r="AH18" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AI18" s="39">
+      <c r="AI18" s="35">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AJ18" s="40">
+      <c r="AJ18" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AK18" s="40">
+      <c r="AK18" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AL18" s="41">
+      <c r="AL18" s="37">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AM18" s="42">
+      <c r="AM18" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AN18" s="43">
+      <c r="AN18" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AO18" s="41">
+      <c r="AO18" s="37">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AP18" s="43">
+      <c r="AP18" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AQ18" s="43">
+      <c r="AQ18" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AR18" s="43">
+      <c r="AR18" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AS18" s="43">
+      <c r="AS18" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AT18" s="87"/>
-      <c r="AU18" s="88"/>
+      <c r="AT18" s="80"/>
+      <c r="AU18" s="81"/>
     </row>
-    <row r="19" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+    <row r="19" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="1.2">
+      <c r="A19" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="26"/>
-      <c r="AA19" s="26"/>
-      <c r="AB19" s="26"/>
-      <c r="AC19" s="26"/>
-      <c r="AD19" s="26"/>
-      <c r="AE19" s="26"/>
-      <c r="AF19" s="44"/>
-      <c r="AG19" s="37">
+      <c r="B19" s="131"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="131"/>
+      <c r="K19" s="131"/>
+      <c r="L19" s="131"/>
+      <c r="M19" s="131"/>
+      <c r="N19" s="131"/>
+      <c r="O19" s="131"/>
+      <c r="P19" s="131"/>
+      <c r="Q19" s="131"/>
+      <c r="R19" s="131"/>
+      <c r="S19" s="131"/>
+      <c r="T19" s="131"/>
+      <c r="U19" s="131"/>
+      <c r="V19" s="132"/>
+      <c r="W19" s="131"/>
+      <c r="X19" s="131"/>
+      <c r="Y19" s="131"/>
+      <c r="Z19" s="131"/>
+      <c r="AA19" s="131"/>
+      <c r="AB19" s="131"/>
+      <c r="AC19" s="131"/>
+      <c r="AD19" s="131"/>
+      <c r="AE19" s="131"/>
+      <c r="AF19" s="134"/>
+      <c r="AG19" s="33">
         <f t="shared" ref="AG19:AS19" si="5">COUNTIF($B19:$AF19,AG$13)</f>
         <v>0</v>
       </c>
-      <c r="AH19" s="38">
+      <c r="AH19" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AI19" s="39">
+      <c r="AI19" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AJ19" s="40">
+      <c r="AJ19" s="36">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AK19" s="40">
+      <c r="AK19" s="36">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AL19" s="41">
+      <c r="AL19" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM19" s="42">
+      <c r="AM19" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AN19" s="43">
+      <c r="AN19" s="39">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AO19" s="41">
+      <c r="AO19" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AP19" s="43">
+      <c r="AP19" s="39">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AQ19" s="43">
+      <c r="AQ19" s="39">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AR19" s="43">
+      <c r="AR19" s="39">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AS19" s="43">
+      <c r="AS19" s="39">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AT19" s="87"/>
-      <c r="AU19" s="88"/>
+      <c r="AT19" s="80"/>
+      <c r="AU19" s="81"/>
     </row>
     <row r="20" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="26"/>
-      <c r="AA20" s="26"/>
-      <c r="AB20" s="26"/>
-      <c r="AC20" s="26"/>
-      <c r="AD20" s="26"/>
-      <c r="AE20" s="26"/>
-      <c r="AF20" s="26"/>
-      <c r="AG20" s="37">
+      <c r="B20" s="131"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="131"/>
+      <c r="J20" s="131"/>
+      <c r="K20" s="131"/>
+      <c r="L20" s="131"/>
+      <c r="M20" s="131"/>
+      <c r="N20" s="131"/>
+      <c r="O20" s="131"/>
+      <c r="P20" s="131"/>
+      <c r="Q20" s="131"/>
+      <c r="R20" s="131"/>
+      <c r="S20" s="131"/>
+      <c r="T20" s="131"/>
+      <c r="U20" s="131"/>
+      <c r="V20" s="131"/>
+      <c r="W20" s="131"/>
+      <c r="X20" s="131"/>
+      <c r="Y20" s="131"/>
+      <c r="Z20" s="131"/>
+      <c r="AA20" s="131"/>
+      <c r="AB20" s="131"/>
+      <c r="AC20" s="131"/>
+      <c r="AD20" s="131"/>
+      <c r="AE20" s="131"/>
+      <c r="AF20" s="131"/>
+      <c r="AG20" s="33">
         <f t="shared" ref="AG20:AS20" si="6">COUNTIF($B20:$AF20,AG$13)</f>
         <v>0</v>
       </c>
-      <c r="AH20" s="38">
+      <c r="AH20" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AI20" s="39">
+      <c r="AI20" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AJ20" s="40">
+      <c r="AJ20" s="36">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AK20" s="40">
+      <c r="AK20" s="36">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AL20" s="41">
+      <c r="AL20" s="37">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AM20" s="42">
+      <c r="AM20" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN20" s="43">
+      <c r="AN20" s="39">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AO20" s="41">
+      <c r="AO20" s="37">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AP20" s="43">
+      <c r="AP20" s="39">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AQ20" s="43">
+      <c r="AQ20" s="39">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AR20" s="43">
+      <c r="AR20" s="39">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AS20" s="43">
+      <c r="AS20" s="39">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AT20" s="87"/>
-      <c r="AU20" s="88"/>
+      <c r="AT20" s="80"/>
+      <c r="AU20" s="81"/>
     </row>
     <row r="21" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="26"/>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="26"/>
-      <c r="AC21" s="26"/>
-      <c r="AD21" s="26"/>
-      <c r="AE21" s="26"/>
-      <c r="AF21" s="26"/>
-      <c r="AG21" s="37">
+      <c r="B21" s="135"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="131"/>
+      <c r="F21" s="131"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="131"/>
+      <c r="K21" s="131"/>
+      <c r="L21" s="131"/>
+      <c r="M21" s="131"/>
+      <c r="N21" s="131"/>
+      <c r="O21" s="131"/>
+      <c r="P21" s="131"/>
+      <c r="Q21" s="131"/>
+      <c r="R21" s="131"/>
+      <c r="S21" s="131"/>
+      <c r="T21" s="131"/>
+      <c r="U21" s="131"/>
+      <c r="V21" s="131"/>
+      <c r="W21" s="131"/>
+      <c r="X21" s="131"/>
+      <c r="Y21" s="131"/>
+      <c r="Z21" s="131"/>
+      <c r="AA21" s="131"/>
+      <c r="AB21" s="131"/>
+      <c r="AC21" s="131"/>
+      <c r="AD21" s="131"/>
+      <c r="AE21" s="131"/>
+      <c r="AF21" s="131"/>
+      <c r="AG21" s="33">
         <f t="shared" ref="AG21:AS21" si="7">COUNTIF($B21:$AF21,AG$13)</f>
         <v>0</v>
       </c>
-      <c r="AH21" s="38">
+      <c r="AH21" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AI21" s="39">
+      <c r="AI21" s="35">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AJ21" s="40">
+      <c r="AJ21" s="36">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AK21" s="40">
+      <c r="AK21" s="36">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AL21" s="41">
+      <c r="AL21" s="37">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AM21" s="42">
+      <c r="AM21" s="38">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AN21" s="43">
+      <c r="AN21" s="39">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AO21" s="41">
+      <c r="AO21" s="37">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AP21" s="43">
+      <c r="AP21" s="39">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AQ21" s="43">
+      <c r="AQ21" s="39">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AR21" s="43">
+      <c r="AR21" s="39">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AS21" s="43">
+      <c r="AS21" s="39">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AT21" s="87"/>
-      <c r="AU21" s="88"/>
+      <c r="AT21" s="80"/>
+      <c r="AU21" s="81"/>
     </row>
     <row r="22" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="26"/>
-      <c r="AC22" s="26"/>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="44"/>
-      <c r="AG22" s="37">
+      <c r="B22" s="135"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="131"/>
+      <c r="K22" s="131"/>
+      <c r="L22" s="131"/>
+      <c r="M22" s="131"/>
+      <c r="N22" s="131"/>
+      <c r="O22" s="131"/>
+      <c r="P22" s="131"/>
+      <c r="Q22" s="131"/>
+      <c r="R22" s="131"/>
+      <c r="S22" s="131"/>
+      <c r="T22" s="131"/>
+      <c r="U22" s="131"/>
+      <c r="V22" s="131"/>
+      <c r="W22" s="131"/>
+      <c r="X22" s="131"/>
+      <c r="Y22" s="131"/>
+      <c r="Z22" s="131"/>
+      <c r="AA22" s="131"/>
+      <c r="AB22" s="131"/>
+      <c r="AC22" s="131"/>
+      <c r="AD22" s="131"/>
+      <c r="AE22" s="131"/>
+      <c r="AF22" s="134"/>
+      <c r="AG22" s="33">
         <f t="shared" ref="AG22:AS22" si="8">COUNTIF($B22:$AF22,AG$13)</f>
         <v>0</v>
       </c>
-      <c r="AH22" s="38">
+      <c r="AH22" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AI22" s="39">
+      <c r="AI22" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AJ22" s="40">
+      <c r="AJ22" s="36">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AK22" s="40">
+      <c r="AK22" s="36">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AL22" s="41">
+      <c r="AL22" s="37">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AM22" s="42">
+      <c r="AM22" s="38">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AN22" s="43">
+      <c r="AN22" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AO22" s="41">
+      <c r="AO22" s="37">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AP22" s="43">
+      <c r="AP22" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AQ22" s="43">
+      <c r="AQ22" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AR22" s="43">
+      <c r="AR22" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AS22" s="43">
+      <c r="AS22" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AT22" s="87"/>
-      <c r="AU22" s="88"/>
+      <c r="AT22" s="80"/>
+      <c r="AU22" s="81"/>
     </row>
     <row r="23" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="26"/>
-      <c r="AA23" s="26"/>
-      <c r="AB23" s="26"/>
-      <c r="AC23" s="26"/>
-      <c r="AD23" s="26"/>
-      <c r="AE23" s="26"/>
-      <c r="AF23" s="26"/>
-      <c r="AG23" s="37">
+      <c r="B23" s="135"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="131"/>
+      <c r="K23" s="131"/>
+      <c r="L23" s="131"/>
+      <c r="M23" s="131"/>
+      <c r="N23" s="131"/>
+      <c r="O23" s="131"/>
+      <c r="P23" s="131"/>
+      <c r="Q23" s="131"/>
+      <c r="R23" s="131"/>
+      <c r="S23" s="131"/>
+      <c r="T23" s="131"/>
+      <c r="U23" s="131"/>
+      <c r="V23" s="131"/>
+      <c r="W23" s="131"/>
+      <c r="X23" s="131"/>
+      <c r="Y23" s="131"/>
+      <c r="Z23" s="131"/>
+      <c r="AA23" s="131"/>
+      <c r="AB23" s="131"/>
+      <c r="AC23" s="131"/>
+      <c r="AD23" s="131"/>
+      <c r="AE23" s="131"/>
+      <c r="AF23" s="131"/>
+      <c r="AG23" s="33">
         <f t="shared" ref="AG23:AS23" si="9">COUNTIF($B23:$AF23,AG$13)</f>
         <v>0</v>
       </c>
-      <c r="AH23" s="38">
+      <c r="AH23" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AI23" s="39">
+      <c r="AI23" s="35">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AJ23" s="40">
+      <c r="AJ23" s="36">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AK23" s="40">
+      <c r="AK23" s="36">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AL23" s="41">
+      <c r="AL23" s="37">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AM23" s="42">
+      <c r="AM23" s="38">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AN23" s="43">
+      <c r="AN23" s="39">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AO23" s="41">
+      <c r="AO23" s="37">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AP23" s="43">
+      <c r="AP23" s="39">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AQ23" s="43">
+      <c r="AQ23" s="39">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AR23" s="43">
+      <c r="AR23" s="39">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AS23" s="43">
+      <c r="AS23" s="39">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AT23" s="87"/>
-      <c r="AU23" s="88"/>
+      <c r="AT23" s="80"/>
+      <c r="AU23" s="81"/>
     </row>
     <row r="24" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="26"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="26"/>
-      <c r="AC24" s="26"/>
-      <c r="AD24" s="26"/>
-      <c r="AE24" s="26"/>
-      <c r="AF24" s="46"/>
-      <c r="AG24" s="37">
+      <c r="B24" s="131"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="131"/>
+      <c r="K24" s="131"/>
+      <c r="L24" s="131"/>
+      <c r="M24" s="131"/>
+      <c r="N24" s="131"/>
+      <c r="O24" s="131"/>
+      <c r="P24" s="131"/>
+      <c r="Q24" s="131"/>
+      <c r="R24" s="131"/>
+      <c r="S24" s="131"/>
+      <c r="T24" s="131"/>
+      <c r="U24" s="131"/>
+      <c r="V24" s="131"/>
+      <c r="W24" s="131"/>
+      <c r="X24" s="131"/>
+      <c r="Y24" s="131"/>
+      <c r="Z24" s="131"/>
+      <c r="AA24" s="131"/>
+      <c r="AB24" s="131"/>
+      <c r="AC24" s="131"/>
+      <c r="AD24" s="131"/>
+      <c r="AE24" s="131"/>
+      <c r="AF24" s="136"/>
+      <c r="AG24" s="33">
         <f t="shared" ref="AG24:AS24" si="10">COUNTIF($B24:$AF24,AG$13)</f>
         <v>0</v>
       </c>
-      <c r="AH24" s="38">
+      <c r="AH24" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AI24" s="39">
+      <c r="AI24" s="35">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AJ24" s="40">
+      <c r="AJ24" s="36">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AK24" s="40">
+      <c r="AK24" s="36">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AL24" s="41">
+      <c r="AL24" s="37">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AM24" s="42">
+      <c r="AM24" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN24" s="43">
+      <c r="AN24" s="39">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AO24" s="41">
+      <c r="AO24" s="37">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AP24" s="43">
+      <c r="AP24" s="39">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AQ24" s="43">
+      <c r="AQ24" s="39">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AR24" s="43">
+      <c r="AR24" s="39">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AS24" s="43">
+      <c r="AS24" s="39">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AT24" s="87"/>
-      <c r="AU24" s="88"/>
+      <c r="AT24" s="80"/>
+      <c r="AU24" s="81"/>
     </row>
     <row r="25" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="26"/>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="26"/>
-      <c r="AC25" s="26"/>
-      <c r="AD25" s="26"/>
-      <c r="AE25" s="26"/>
-      <c r="AF25" s="26"/>
-      <c r="AG25" s="48">
+      <c r="B25" s="135"/>
+      <c r="C25" s="131"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="131"/>
+      <c r="G25" s="131"/>
+      <c r="H25" s="131"/>
+      <c r="I25" s="131"/>
+      <c r="J25" s="131"/>
+      <c r="K25" s="131"/>
+      <c r="L25" s="131"/>
+      <c r="M25" s="131"/>
+      <c r="N25" s="131"/>
+      <c r="O25" s="131"/>
+      <c r="P25" s="131"/>
+      <c r="Q25" s="131"/>
+      <c r="R25" s="131"/>
+      <c r="S25" s="131"/>
+      <c r="T25" s="131"/>
+      <c r="U25" s="131"/>
+      <c r="V25" s="131"/>
+      <c r="W25" s="131"/>
+      <c r="X25" s="131"/>
+      <c r="Y25" s="131"/>
+      <c r="Z25" s="131"/>
+      <c r="AA25" s="131"/>
+      <c r="AB25" s="131"/>
+      <c r="AC25" s="131"/>
+      <c r="AD25" s="131"/>
+      <c r="AE25" s="131"/>
+      <c r="AF25" s="131"/>
+      <c r="AG25" s="41">
         <f t="shared" ref="AG25:AS25" si="11">COUNTIF($B25:$AF25,AG$13)</f>
         <v>0</v>
       </c>
-      <c r="AH25" s="49">
+      <c r="AH25" s="42">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AI25" s="50">
+      <c r="AI25" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AJ25" s="51">
+      <c r="AJ25" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AK25" s="51">
+      <c r="AK25" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AL25" s="52">
+      <c r="AL25" s="45">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AM25" s="53">
+      <c r="AM25" s="46">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AN25" s="54">
+      <c r="AN25" s="47">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AO25" s="52">
+      <c r="AO25" s="45">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AP25" s="54">
+      <c r="AP25" s="47">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AQ25" s="54">
+      <c r="AQ25" s="47">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AR25" s="54">
+      <c r="AR25" s="47">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AS25" s="54">
+      <c r="AS25" s="47">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AT25" s="90"/>
-      <c r="AU25" s="91"/>
+      <c r="AT25" s="83"/>
+      <c r="AU25" s="84"/>
     </row>
     <row r="26" spans="1:47" ht="15" x14ac:dyDescent="0.3">
-      <c r="A26" s="55"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="56"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="89"/>
-      <c r="Z26" s="71"/>
-      <c r="AA26" s="71"/>
-      <c r="AB26" s="71"/>
-      <c r="AC26" s="71"/>
-      <c r="AD26" s="71"/>
-      <c r="AE26" s="56"/>
-      <c r="AF26" s="56"/>
-      <c r="AG26" s="57">
+      <c r="A26" s="48"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="49"/>
+      <c r="Y26" s="82"/>
+      <c r="Z26" s="64"/>
+      <c r="AA26" s="64"/>
+      <c r="AB26" s="64"/>
+      <c r="AC26" s="64"/>
+      <c r="AD26" s="64"/>
+      <c r="AE26" s="49"/>
+      <c r="AF26" s="49"/>
+      <c r="AG26" s="50">
         <f t="shared" ref="AG26:AS26" si="12">SUM(AG14:AG25)</f>
         <v>0</v>
       </c>
-      <c r="AH26" s="58">
+      <c r="AH26" s="51">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI26" s="59">
+      <c r="AI26" s="52">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AJ26" s="60">
+      <c r="AJ26" s="53">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AK26" s="60">
+      <c r="AK26" s="53">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AL26" s="61">
+      <c r="AL26" s="54">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AM26" s="62">
+      <c r="AM26" s="55">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AN26" s="63">
+      <c r="AN26" s="56">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AO26" s="61">
+      <c r="AO26" s="54">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AP26" s="63">
+      <c r="AP26" s="56">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AQ26" s="63">
+      <c r="AQ26" s="56">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AR26" s="63">
+      <c r="AR26" s="56">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AS26" s="63">
+      <c r="AS26" s="56">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AT26" s="92">
+      <c r="AT26" s="85">
         <f>AG26+AI26-AH26</f>
         <v>0</v>
       </c>
-      <c r="AU26" s="78"/>
+      <c r="AU26" s="71"/>
     </row>
     <row r="27" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="71"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="75"/>
-      <c r="M27" s="64"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="68"/>
+      <c r="M27" s="57"/>
     </row>
     <row r="28" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="71"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="78"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="80"/>
-      <c r="P28" s="80"/>
-      <c r="Q28" s="80"/>
-      <c r="R28" s="80"/>
-      <c r="S28" s="80"/>
-      <c r="T28" s="81"/>
-      <c r="V28" s="82" t="s">
+      <c r="A28" s="64"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="71"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="73"/>
+      <c r="Q28" s="73"/>
+      <c r="R28" s="73"/>
+      <c r="S28" s="73"/>
+      <c r="T28" s="74"/>
+      <c r="V28" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="W28" s="83"/>
-      <c r="X28" s="83"/>
-      <c r="Y28" s="84" t="s">
+      <c r="W28" s="76"/>
+      <c r="X28" s="76"/>
+      <c r="Y28" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="Z28" s="85"/>
-      <c r="AA28" s="85"/>
-      <c r="AB28" s="85"/>
-      <c r="AC28" s="85"/>
-      <c r="AD28" s="85"/>
-      <c r="AE28" s="85"/>
-      <c r="AF28" s="85"/>
-      <c r="AG28" s="85"/>
-      <c r="AH28" s="85"/>
-      <c r="AI28" s="85"/>
-      <c r="AJ28" s="85"/>
-      <c r="AK28" s="85"/>
-      <c r="AL28" s="85"/>
-      <c r="AM28" s="85"/>
-      <c r="AN28" s="85"/>
-      <c r="AO28" s="85"/>
-      <c r="AP28" s="85"/>
-      <c r="AQ28" s="85"/>
-      <c r="AR28" s="85"/>
-      <c r="AS28" s="85"/>
-      <c r="AT28" s="85"/>
-      <c r="AU28" s="86"/>
+      <c r="Z28" s="78"/>
+      <c r="AA28" s="78"/>
+      <c r="AB28" s="78"/>
+      <c r="AC28" s="78"/>
+      <c r="AD28" s="78"/>
+      <c r="AE28" s="78"/>
+      <c r="AF28" s="78"/>
+      <c r="AG28" s="78"/>
+      <c r="AH28" s="78"/>
+      <c r="AI28" s="78"/>
+      <c r="AJ28" s="78"/>
+      <c r="AK28" s="78"/>
+      <c r="AL28" s="78"/>
+      <c r="AM28" s="78"/>
+      <c r="AN28" s="78"/>
+      <c r="AO28" s="78"/>
+      <c r="AP28" s="78"/>
+      <c r="AQ28" s="78"/>
+      <c r="AR28" s="78"/>
+      <c r="AS28" s="78"/>
+      <c r="AT28" s="78"/>
+      <c r="AU28" s="79"/>
     </row>
     <row r="29" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="V29" s="84"/>
-      <c r="W29" s="85"/>
-      <c r="X29" s="85"/>
-      <c r="Y29" s="132"/>
-      <c r="Z29" s="85"/>
-      <c r="AA29" s="85"/>
-      <c r="AB29" s="85"/>
-      <c r="AC29" s="85"/>
-      <c r="AD29" s="85"/>
-      <c r="AE29" s="85"/>
-      <c r="AF29" s="85"/>
-      <c r="AG29" s="85"/>
-      <c r="AH29" s="85"/>
-      <c r="AI29" s="85"/>
-      <c r="AJ29" s="85"/>
-      <c r="AK29" s="85"/>
-      <c r="AL29" s="85"/>
-      <c r="AM29" s="85"/>
-      <c r="AN29" s="85"/>
-      <c r="AO29" s="85"/>
-      <c r="AP29" s="85"/>
-      <c r="AQ29" s="85"/>
-      <c r="AR29" s="85"/>
-      <c r="AS29" s="85"/>
-      <c r="AT29" s="85"/>
-      <c r="AU29" s="133"/>
+      <c r="V29" s="77"/>
+      <c r="W29" s="78"/>
+      <c r="X29" s="78"/>
+      <c r="Y29" s="125"/>
+      <c r="Z29" s="78"/>
+      <c r="AA29" s="78"/>
+      <c r="AB29" s="78"/>
+      <c r="AC29" s="78"/>
+      <c r="AD29" s="78"/>
+      <c r="AE29" s="78"/>
+      <c r="AF29" s="78"/>
+      <c r="AG29" s="78"/>
+      <c r="AH29" s="78"/>
+      <c r="AI29" s="78"/>
+      <c r="AJ29" s="78"/>
+      <c r="AK29" s="78"/>
+      <c r="AL29" s="78"/>
+      <c r="AM29" s="78"/>
+      <c r="AN29" s="78"/>
+      <c r="AO29" s="78"/>
+      <c r="AP29" s="78"/>
+      <c r="AQ29" s="78"/>
+      <c r="AR29" s="78"/>
+      <c r="AS29" s="78"/>
+      <c r="AT29" s="78"/>
+      <c r="AU29" s="126"/>
     </row>
     <row r="30" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="136" t="s">
+      <c r="A30" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="71"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="134"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="80"/>
-      <c r="M30" s="80"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="80"/>
-      <c r="P30" s="80"/>
-      <c r="Q30" s="80"/>
-      <c r="R30" s="81"/>
-      <c r="V30" s="124"/>
-      <c r="W30" s="80"/>
-      <c r="X30" s="80"/>
-      <c r="Y30" s="135" t="s">
+      <c r="B30" s="64"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="73"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="74"/>
+      <c r="V30" s="117"/>
+      <c r="W30" s="73"/>
+      <c r="X30" s="73"/>
+      <c r="Y30" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="Z30" s="80"/>
-      <c r="AA30" s="80"/>
-      <c r="AB30" s="80"/>
-      <c r="AC30" s="80"/>
-      <c r="AD30" s="80"/>
-      <c r="AE30" s="80"/>
-      <c r="AF30" s="80"/>
-      <c r="AG30" s="80"/>
-      <c r="AH30" s="80"/>
-      <c r="AI30" s="80"/>
-      <c r="AJ30" s="80"/>
-      <c r="AK30" s="80"/>
-      <c r="AL30" s="80"/>
-      <c r="AM30" s="80"/>
-      <c r="AN30" s="80"/>
-      <c r="AO30" s="80"/>
-      <c r="AP30" s="80"/>
-      <c r="AQ30" s="80"/>
-      <c r="AR30" s="80"/>
-      <c r="AS30" s="80"/>
-      <c r="AT30" s="80"/>
-      <c r="AU30" s="88"/>
+      <c r="Z30" s="73"/>
+      <c r="AA30" s="73"/>
+      <c r="AB30" s="73"/>
+      <c r="AC30" s="73"/>
+      <c r="AD30" s="73"/>
+      <c r="AE30" s="73"/>
+      <c r="AF30" s="73"/>
+      <c r="AG30" s="73"/>
+      <c r="AH30" s="73"/>
+      <c r="AI30" s="73"/>
+      <c r="AJ30" s="73"/>
+      <c r="AK30" s="73"/>
+      <c r="AL30" s="73"/>
+      <c r="AM30" s="73"/>
+      <c r="AN30" s="73"/>
+      <c r="AO30" s="73"/>
+      <c r="AP30" s="73"/>
+      <c r="AQ30" s="73"/>
+      <c r="AR30" s="73"/>
+      <c r="AS30" s="73"/>
+      <c r="AT30" s="73"/>
+      <c r="AU30" s="81"/>
     </row>
     <row r="31" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V31" s="124"/>
-      <c r="W31" s="80"/>
-      <c r="X31" s="80"/>
-      <c r="Y31" s="124"/>
-      <c r="Z31" s="80"/>
-      <c r="AA31" s="80"/>
-      <c r="AB31" s="80"/>
-      <c r="AC31" s="80"/>
-      <c r="AD31" s="80"/>
-      <c r="AE31" s="80"/>
-      <c r="AF31" s="80"/>
-      <c r="AG31" s="80"/>
-      <c r="AH31" s="80"/>
-      <c r="AI31" s="80"/>
-      <c r="AJ31" s="80"/>
-      <c r="AK31" s="80"/>
-      <c r="AL31" s="80"/>
-      <c r="AM31" s="80"/>
-      <c r="AN31" s="80"/>
-      <c r="AO31" s="80"/>
-      <c r="AP31" s="80"/>
-      <c r="AQ31" s="80"/>
-      <c r="AR31" s="80"/>
-      <c r="AS31" s="80"/>
-      <c r="AT31" s="80"/>
-      <c r="AU31" s="88"/>
+      <c r="V31" s="117"/>
+      <c r="W31" s="73"/>
+      <c r="X31" s="73"/>
+      <c r="Y31" s="117"/>
+      <c r="Z31" s="73"/>
+      <c r="AA31" s="73"/>
+      <c r="AB31" s="73"/>
+      <c r="AC31" s="73"/>
+      <c r="AD31" s="73"/>
+      <c r="AE31" s="73"/>
+      <c r="AF31" s="73"/>
+      <c r="AG31" s="73"/>
+      <c r="AH31" s="73"/>
+      <c r="AI31" s="73"/>
+      <c r="AJ31" s="73"/>
+      <c r="AK31" s="73"/>
+      <c r="AL31" s="73"/>
+      <c r="AM31" s="73"/>
+      <c r="AN31" s="73"/>
+      <c r="AO31" s="73"/>
+      <c r="AP31" s="73"/>
+      <c r="AQ31" s="73"/>
+      <c r="AR31" s="73"/>
+      <c r="AS31" s="73"/>
+      <c r="AT31" s="73"/>
+      <c r="AU31" s="81"/>
     </row>
     <row r="32" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100" t="s">
+      <c r="A32" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="71"/>
-      <c r="D32" s="137"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="80"/>
-      <c r="K32" s="80"/>
-      <c r="L32" s="80"/>
-      <c r="M32" s="81"/>
-      <c r="V32" s="124"/>
-      <c r="W32" s="80"/>
-      <c r="X32" s="80"/>
-      <c r="Y32" s="124"/>
-      <c r="Z32" s="80"/>
-      <c r="AA32" s="80"/>
-      <c r="AB32" s="80"/>
-      <c r="AC32" s="80"/>
-      <c r="AD32" s="80"/>
-      <c r="AE32" s="80"/>
-      <c r="AF32" s="80"/>
-      <c r="AG32" s="80"/>
-      <c r="AH32" s="80"/>
-      <c r="AI32" s="80"/>
-      <c r="AJ32" s="80"/>
-      <c r="AK32" s="80"/>
-      <c r="AL32" s="80"/>
-      <c r="AM32" s="80"/>
-      <c r="AN32" s="80"/>
-      <c r="AO32" s="80"/>
-      <c r="AP32" s="80"/>
-      <c r="AQ32" s="80"/>
-      <c r="AR32" s="80"/>
-      <c r="AS32" s="80"/>
-      <c r="AT32" s="80"/>
-      <c r="AU32" s="88"/>
+      <c r="B32" s="64"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="74"/>
+      <c r="V32" s="117"/>
+      <c r="W32" s="73"/>
+      <c r="X32" s="73"/>
+      <c r="Y32" s="117"/>
+      <c r="Z32" s="73"/>
+      <c r="AA32" s="73"/>
+      <c r="AB32" s="73"/>
+      <c r="AC32" s="73"/>
+      <c r="AD32" s="73"/>
+      <c r="AE32" s="73"/>
+      <c r="AF32" s="73"/>
+      <c r="AG32" s="73"/>
+      <c r="AH32" s="73"/>
+      <c r="AI32" s="73"/>
+      <c r="AJ32" s="73"/>
+      <c r="AK32" s="73"/>
+      <c r="AL32" s="73"/>
+      <c r="AM32" s="73"/>
+      <c r="AN32" s="73"/>
+      <c r="AO32" s="73"/>
+      <c r="AP32" s="73"/>
+      <c r="AQ32" s="73"/>
+      <c r="AR32" s="73"/>
+      <c r="AS32" s="73"/>
+      <c r="AT32" s="73"/>
+      <c r="AU32" s="81"/>
     </row>
     <row r="33" spans="2:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
-      <c r="V33" s="124"/>
-      <c r="W33" s="80"/>
-      <c r="X33" s="80"/>
-      <c r="Y33" s="131"/>
-      <c r="Z33" s="80"/>
-      <c r="AA33" s="80"/>
-      <c r="AB33" s="80"/>
-      <c r="AC33" s="80"/>
-      <c r="AD33" s="80"/>
-      <c r="AE33" s="80"/>
-      <c r="AF33" s="80"/>
-      <c r="AG33" s="80"/>
-      <c r="AH33" s="80"/>
-      <c r="AI33" s="80"/>
-      <c r="AJ33" s="80"/>
-      <c r="AK33" s="80"/>
-      <c r="AL33" s="80"/>
-      <c r="AM33" s="80"/>
-      <c r="AN33" s="80"/>
-      <c r="AO33" s="80"/>
-      <c r="AP33" s="80"/>
-      <c r="AQ33" s="80"/>
-      <c r="AR33" s="80"/>
-      <c r="AS33" s="80"/>
-      <c r="AT33" s="80"/>
-      <c r="AU33" s="88"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="V33" s="117"/>
+      <c r="W33" s="73"/>
+      <c r="X33" s="73"/>
+      <c r="Y33" s="124"/>
+      <c r="Z33" s="73"/>
+      <c r="AA33" s="73"/>
+      <c r="AB33" s="73"/>
+      <c r="AC33" s="73"/>
+      <c r="AD33" s="73"/>
+      <c r="AE33" s="73"/>
+      <c r="AF33" s="73"/>
+      <c r="AG33" s="73"/>
+      <c r="AH33" s="73"/>
+      <c r="AI33" s="73"/>
+      <c r="AJ33" s="73"/>
+      <c r="AK33" s="73"/>
+      <c r="AL33" s="73"/>
+      <c r="AM33" s="73"/>
+      <c r="AN33" s="73"/>
+      <c r="AO33" s="73"/>
+      <c r="AP33" s="73"/>
+      <c r="AQ33" s="73"/>
+      <c r="AR33" s="73"/>
+      <c r="AS33" s="73"/>
+      <c r="AT33" s="73"/>
+      <c r="AU33" s="81"/>
     </row>
     <row r="34" spans="2:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="122" t="s">
+      <c r="B34" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="H34" s="126" t="s">
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="H34" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="I34" s="75"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="122" t="s">
+      <c r="I34" s="68"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="N34" s="71"/>
-      <c r="O34" s="71"/>
-      <c r="P34" s="71"/>
-      <c r="Q34" s="71"/>
-      <c r="R34" s="69"/>
-      <c r="S34" s="123" t="s">
+      <c r="N34" s="64"/>
+      <c r="O34" s="64"/>
+      <c r="P34" s="64"/>
+      <c r="Q34" s="64"/>
+      <c r="R34" s="62"/>
+      <c r="S34" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="T34" s="75"/>
-      <c r="V34" s="124"/>
-      <c r="W34" s="80"/>
-      <c r="X34" s="80"/>
-      <c r="Y34" s="125"/>
-      <c r="Z34" s="80"/>
-      <c r="AA34" s="80"/>
-      <c r="AB34" s="80"/>
-      <c r="AC34" s="80"/>
-      <c r="AD34" s="80"/>
-      <c r="AE34" s="80"/>
-      <c r="AF34" s="80"/>
-      <c r="AG34" s="80"/>
-      <c r="AH34" s="80"/>
-      <c r="AI34" s="80"/>
-      <c r="AJ34" s="80"/>
-      <c r="AK34" s="80"/>
-      <c r="AL34" s="80"/>
-      <c r="AM34" s="80"/>
-      <c r="AN34" s="80"/>
-      <c r="AO34" s="80"/>
-      <c r="AP34" s="80"/>
-      <c r="AQ34" s="80"/>
-      <c r="AR34" s="80"/>
-      <c r="AS34" s="80"/>
-      <c r="AT34" s="80"/>
-      <c r="AU34" s="88"/>
+      <c r="T34" s="68"/>
+      <c r="V34" s="117"/>
+      <c r="W34" s="73"/>
+      <c r="X34" s="73"/>
+      <c r="Y34" s="118"/>
+      <c r="Z34" s="73"/>
+      <c r="AA34" s="73"/>
+      <c r="AB34" s="73"/>
+      <c r="AC34" s="73"/>
+      <c r="AD34" s="73"/>
+      <c r="AE34" s="73"/>
+      <c r="AF34" s="73"/>
+      <c r="AG34" s="73"/>
+      <c r="AH34" s="73"/>
+      <c r="AI34" s="73"/>
+      <c r="AJ34" s="73"/>
+      <c r="AK34" s="73"/>
+      <c r="AL34" s="73"/>
+      <c r="AM34" s="73"/>
+      <c r="AN34" s="73"/>
+      <c r="AO34" s="73"/>
+      <c r="AP34" s="73"/>
+      <c r="AQ34" s="73"/>
+      <c r="AR34" s="73"/>
+      <c r="AS34" s="73"/>
+      <c r="AT34" s="73"/>
+      <c r="AU34" s="81"/>
     </row>
     <row r="35" spans="2:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="71"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="H35" s="127" t="e">
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="H35" s="120" t="e">
         <f>H34+AG26+AI26-AH26</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I35" s="78"/>
-      <c r="J35" s="67"/>
-      <c r="K35" s="67"/>
-      <c r="L35" s="67"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="71"/>
-      <c r="O35" s="71"/>
-      <c r="P35" s="71"/>
-      <c r="Q35" s="71"/>
-      <c r="R35" s="69"/>
-      <c r="S35" s="76"/>
-      <c r="T35" s="78"/>
-      <c r="V35" s="128"/>
-      <c r="W35" s="129"/>
-      <c r="X35" s="129"/>
-      <c r="Y35" s="130"/>
-      <c r="Z35" s="129"/>
-      <c r="AA35" s="129"/>
-      <c r="AB35" s="129"/>
-      <c r="AC35" s="129"/>
-      <c r="AD35" s="129"/>
-      <c r="AE35" s="129"/>
-      <c r="AF35" s="129"/>
-      <c r="AG35" s="129"/>
-      <c r="AH35" s="129"/>
-      <c r="AI35" s="129"/>
-      <c r="AJ35" s="129"/>
-      <c r="AK35" s="129"/>
-      <c r="AL35" s="129"/>
-      <c r="AM35" s="129"/>
-      <c r="AN35" s="129"/>
-      <c r="AO35" s="129"/>
-      <c r="AP35" s="129"/>
-      <c r="AQ35" s="129"/>
-      <c r="AR35" s="129"/>
-      <c r="AS35" s="129"/>
-      <c r="AT35" s="129"/>
-      <c r="AU35" s="91"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="64"/>
+      <c r="R35" s="62"/>
+      <c r="S35" s="69"/>
+      <c r="T35" s="71"/>
+      <c r="V35" s="121"/>
+      <c r="W35" s="122"/>
+      <c r="X35" s="122"/>
+      <c r="Y35" s="123"/>
+      <c r="Z35" s="122"/>
+      <c r="AA35" s="122"/>
+      <c r="AB35" s="122"/>
+      <c r="AC35" s="122"/>
+      <c r="AD35" s="122"/>
+      <c r="AE35" s="122"/>
+      <c r="AF35" s="122"/>
+      <c r="AG35" s="122"/>
+      <c r="AH35" s="122"/>
+      <c r="AI35" s="122"/>
+      <c r="AJ35" s="122"/>
+      <c r="AK35" s="122"/>
+      <c r="AL35" s="122"/>
+      <c r="AM35" s="122"/>
+      <c r="AN35" s="122"/>
+      <c r="AO35" s="122"/>
+      <c r="AP35" s="122"/>
+      <c r="AQ35" s="122"/>
+      <c r="AR35" s="122"/>
+      <c r="AS35" s="122"/>
+      <c r="AT35" s="122"/>
+      <c r="AU35" s="84"/>
     </row>
     <row r="36" spans="2:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V36" s="5"/>
@@ -3732,24 +3706,24 @@
       <c r="AU36" s="5"/>
     </row>
     <row r="37" spans="2:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N37" s="122" t="s">
+      <c r="N37" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="O37" s="71"/>
-      <c r="P37" s="71"/>
-      <c r="Q37" s="71"/>
-      <c r="S37" s="123" t="s">
+      <c r="O37" s="64"/>
+      <c r="P37" s="64"/>
+      <c r="Q37" s="64"/>
+      <c r="S37" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="T37" s="75"/>
+      <c r="T37" s="68"/>
     </row>
     <row r="38" spans="2:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N38" s="71"/>
-      <c r="O38" s="71"/>
-      <c r="P38" s="71"/>
-      <c r="Q38" s="71"/>
-      <c r="S38" s="76"/>
-      <c r="T38" s="78"/>
+      <c r="N38" s="64"/>
+      <c r="O38" s="64"/>
+      <c r="P38" s="64"/>
+      <c r="Q38" s="64"/>
+      <c r="S38" s="69"/>
+      <c r="T38" s="71"/>
     </row>
     <row r="39" spans="2:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4816,6 +4790,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
+  <pageSetup paperSize="9" scale="77" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27716"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27816"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\OneDrive\Bureau\git_repo\pointage_for_windows\pointage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\OneDrive\Bureau\pointage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7B1112-CED5-49DA-80DB-3EE6FD4DA9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF661A7-1F7E-4890-B1FD-ECFB64D9676F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t xml:space="preserve">FEUILLE  DE  POINTAGE </t>
   </si>
@@ -153,9 +153,6 @@
   <si>
     <t>#REF!</t>
   </si>
-  <si>
-    <t>FDS</t>
-  </si>
 </sst>
 </file>
 
@@ -434,29 +431,29 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aldhabi"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Aldhabi"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Aldhabi"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="Aldhabi"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aldhabi"/>
     </font>
@@ -1232,88 +1229,82 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="39" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1326,79 +1317,85 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="39" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1711,8 +1708,8 @@
   </sheetPr>
   <dimension ref="A1:AU1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1735,58 +1732,58 @@
   <sheetData>
     <row r="1" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M2" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="105"/>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="105"/>
-      <c r="AC2" s="106"/>
+      <c r="M2" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="98"/>
     </row>
     <row r="3" spans="1:47" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M3" s="107"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108"/>
-      <c r="Y3" s="108"/>
-      <c r="Z3" s="108"/>
-      <c r="AA3" s="108"/>
-      <c r="AB3" s="108"/>
-      <c r="AC3" s="109"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="100"/>
+      <c r="AA3" s="100"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="101"/>
     </row>
     <row r="4" spans="1:47" ht="31" customHeight="1" x14ac:dyDescent="0.8">
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
-      <c r="AI4" s="110" t="s">
+      <c r="AI4" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="AJ4" s="64"/>
-      <c r="AK4" s="64"/>
-      <c r="AL4" s="64"/>
-      <c r="AM4" s="64"/>
-      <c r="AN4" s="97"/>
-      <c r="AO4" s="111"/>
+      <c r="AJ4" s="70"/>
+      <c r="AK4" s="70"/>
+      <c r="AL4" s="70"/>
+      <c r="AM4" s="70"/>
+      <c r="AN4" s="103"/>
+      <c r="AO4" s="104"/>
       <c r="AP4" s="73"/>
       <c r="AQ4" s="73"/>
       <c r="AR4" s="73"/>
@@ -1814,12 +1811,12 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="112" t="s">
+      <c r="U5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
-      <c r="X5" s="96"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
+      <c r="X5" s="107"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
@@ -1848,7 +1845,7 @@
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="102"/>
+      <c r="B6" s="113"/>
       <c r="C6" s="73"/>
       <c r="D6" s="73"/>
       <c r="E6" s="73"/>
@@ -1865,17 +1862,17 @@
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="113"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="76"/>
-      <c r="X6" s="89"/>
-      <c r="AB6" s="86" t="s">
+      <c r="U6" s="108"/>
+      <c r="V6" s="109"/>
+      <c r="W6" s="109"/>
+      <c r="X6" s="110"/>
+      <c r="AB6" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="AC6" s="64"/>
-      <c r="AD6" s="64"/>
-      <c r="AE6" s="64"/>
-      <c r="AG6" s="114"/>
+      <c r="AC6" s="70"/>
+      <c r="AD6" s="70"/>
+      <c r="AE6" s="70"/>
+      <c r="AG6" s="112"/>
       <c r="AH6" s="73"/>
       <c r="AI6" s="73"/>
       <c r="AJ6" s="74"/>
@@ -1885,7 +1882,7 @@
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="102"/>
+      <c r="B7" s="113"/>
       <c r="C7" s="73"/>
       <c r="D7" s="73"/>
       <c r="E7" s="73"/>
@@ -1904,7 +1901,7 @@
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="92"/>
+      <c r="B8" s="114"/>
       <c r="C8" s="73"/>
       <c r="D8" s="73"/>
       <c r="E8" s="73"/>
@@ -1917,37 +1914,37 @@
       <c r="L8" s="73"/>
       <c r="M8" s="73"/>
       <c r="N8" s="74"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="97"/>
-      <c r="S8" s="91"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="116"/>
       <c r="T8" s="74"/>
       <c r="U8" s="8"/>
-      <c r="V8" s="103"/>
-      <c r="W8" s="97"/>
-      <c r="X8" s="91"/>
+      <c r="V8" s="115"/>
+      <c r="W8" s="103"/>
+      <c r="X8" s="116"/>
       <c r="Y8" s="74"/>
-      <c r="AB8" s="93" t="s">
+      <c r="AB8" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="AC8" s="64"/>
-      <c r="AD8" s="64"/>
-      <c r="AE8" s="64"/>
-      <c r="AG8" s="94"/>
-      <c r="AH8" s="95"/>
-      <c r="AI8" s="95"/>
-      <c r="AJ8" s="96"/>
+      <c r="AC8" s="70"/>
+      <c r="AD8" s="70"/>
+      <c r="AE8" s="70"/>
+      <c r="AG8" s="117"/>
+      <c r="AH8" s="106"/>
+      <c r="AI8" s="106"/>
+      <c r="AJ8" s="107"/>
       <c r="AK8" s="9"/>
     </row>
     <row r="9" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AB9" s="93" t="s">
+      <c r="AB9" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="AC9" s="64"/>
-      <c r="AD9" s="64"/>
-      <c r="AE9" s="64"/>
-      <c r="AF9" s="97"/>
-      <c r="AG9" s="98"/>
+      <c r="AC9" s="70"/>
+      <c r="AD9" s="70"/>
+      <c r="AE9" s="70"/>
+      <c r="AF9" s="103"/>
+      <c r="AG9" s="118"/>
       <c r="AH9" s="73"/>
       <c r="AI9" s="73"/>
       <c r="AJ9" s="73"/>
@@ -1959,7 +1956,7 @@
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="92"/>
+      <c r="B10" s="114"/>
       <c r="C10" s="73"/>
       <c r="D10" s="73"/>
       <c r="E10" s="73"/>
@@ -1982,26 +1979,26 @@
       <c r="V10" s="73"/>
       <c r="W10" s="73"/>
       <c r="X10" s="74"/>
-      <c r="AB10" s="93" t="s">
+      <c r="AB10" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="AC10" s="64"/>
-      <c r="AD10" s="64"/>
-      <c r="AE10" s="64"/>
-      <c r="AG10" s="99"/>
-      <c r="AH10" s="100"/>
-      <c r="AI10" s="100"/>
-      <c r="AJ10" s="101"/>
+      <c r="AC10" s="70"/>
+      <c r="AD10" s="70"/>
+      <c r="AE10" s="70"/>
+      <c r="AG10" s="119"/>
+      <c r="AH10" s="120"/>
+      <c r="AI10" s="120"/>
+      <c r="AJ10" s="121"/>
       <c r="AK10" s="10"/>
     </row>
     <row r="11" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AB11" s="86" t="s">
+      <c r="AB11" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="AC11" s="64"/>
-      <c r="AD11" s="64"/>
-      <c r="AE11" s="64"/>
-      <c r="AG11" s="87"/>
+      <c r="AC11" s="70"/>
+      <c r="AD11" s="70"/>
+      <c r="AE11" s="70"/>
+      <c r="AG11" s="122"/>
       <c r="AH11" s="74"/>
     </row>
     <row r="12" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2144,48 +2141,46 @@
       <c r="AS13" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="AT13" s="88" t="s">
+      <c r="AT13" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="AU13" s="89"/>
+      <c r="AU13" s="110"/>
     </row>
-    <row r="14" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="1.2">
+    <row r="14" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="131"/>
-      <c r="C14" s="131"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="131"/>
-      <c r="K14" s="131"/>
-      <c r="L14" s="131"/>
-      <c r="M14" s="131"/>
-      <c r="N14" s="131"/>
-      <c r="O14" s="131" t="s">
-        <v>44</v>
-      </c>
-      <c r="P14" s="131"/>
-      <c r="Q14" s="131"/>
-      <c r="R14" s="131"/>
-      <c r="S14" s="131"/>
-      <c r="T14" s="132"/>
-      <c r="U14" s="131"/>
-      <c r="V14" s="131"/>
-      <c r="W14" s="131"/>
-      <c r="X14" s="131"/>
-      <c r="Y14" s="131"/>
-      <c r="Z14" s="131"/>
-      <c r="AA14" s="131"/>
-      <c r="AB14" s="131"/>
-      <c r="AC14" s="131"/>
-      <c r="AD14" s="131"/>
-      <c r="AE14" s="131"/>
-      <c r="AF14" s="131"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="63"/>
+      <c r="X14" s="63"/>
+      <c r="Y14" s="63"/>
+      <c r="Z14" s="63"/>
+      <c r="AA14" s="63"/>
+      <c r="AB14" s="63"/>
+      <c r="AC14" s="63"/>
+      <c r="AD14" s="63"/>
+      <c r="AE14" s="63"/>
+      <c r="AF14" s="63"/>
       <c r="AG14" s="25">
         <f t="shared" ref="AG14:AS14" si="0">COUNTIF($B14:$AF14,AG$13)</f>
         <v>0</v>
@@ -2238,44 +2233,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AT14" s="90"/>
-      <c r="AU14" s="79"/>
+      <c r="AT14" s="124"/>
+      <c r="AU14" s="125"/>
     </row>
-    <row r="15" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="1.2">
+    <row r="15" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="131"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="131"/>
-      <c r="H15" s="131"/>
-      <c r="I15" s="131"/>
-      <c r="J15" s="131"/>
-      <c r="K15" s="131"/>
-      <c r="L15" s="131"/>
-      <c r="M15" s="131"/>
-      <c r="N15" s="131"/>
-      <c r="O15" s="132"/>
-      <c r="P15" s="131"/>
-      <c r="Q15" s="131"/>
-      <c r="R15" s="131"/>
-      <c r="S15" s="131"/>
-      <c r="T15" s="131"/>
-      <c r="U15" s="131"/>
-      <c r="V15" s="131"/>
-      <c r="W15" s="131"/>
-      <c r="X15" s="131"/>
-      <c r="Y15" s="131"/>
-      <c r="Z15" s="131"/>
-      <c r="AA15" s="132"/>
-      <c r="AB15" s="131"/>
-      <c r="AC15" s="131"/>
-      <c r="AD15" s="131"/>
-      <c r="AE15" s="133"/>
-      <c r="AF15" s="133"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="63"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="63"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="63"/>
+      <c r="AA15" s="64"/>
+      <c r="AB15" s="63"/>
+      <c r="AC15" s="63"/>
+      <c r="AD15" s="63"/>
+      <c r="AE15" s="65"/>
+      <c r="AF15" s="65"/>
       <c r="AG15" s="33">
         <f t="shared" ref="AG15:AS15" si="1">COUNTIF($B15:$AF15,AG$13)</f>
         <v>0</v>
@@ -2328,44 +2323,44 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AT15" s="80"/>
-      <c r="AU15" s="81"/>
+      <c r="AT15" s="126"/>
+      <c r="AU15" s="82"/>
     </row>
     <row r="16" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="131"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="131"/>
-      <c r="J16" s="131"/>
-      <c r="K16" s="131"/>
-      <c r="L16" s="131"/>
-      <c r="M16" s="131"/>
-      <c r="N16" s="131"/>
-      <c r="O16" s="131"/>
-      <c r="P16" s="131"/>
-      <c r="Q16" s="131"/>
-      <c r="R16" s="131"/>
-      <c r="S16" s="131"/>
-      <c r="T16" s="131"/>
-      <c r="U16" s="131"/>
-      <c r="V16" s="131"/>
-      <c r="W16" s="131"/>
-      <c r="X16" s="131"/>
-      <c r="Y16" s="131"/>
-      <c r="Z16" s="131"/>
-      <c r="AA16" s="131"/>
-      <c r="AB16" s="131"/>
-      <c r="AC16" s="131"/>
-      <c r="AD16" s="131"/>
-      <c r="AE16" s="131"/>
-      <c r="AF16" s="131"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="63"/>
+      <c r="AA16" s="63"/>
+      <c r="AB16" s="63"/>
+      <c r="AC16" s="63"/>
+      <c r="AD16" s="63"/>
+      <c r="AE16" s="63"/>
+      <c r="AF16" s="63"/>
       <c r="AG16" s="33">
         <f t="shared" ref="AG16:AS16" si="2">COUNTIF($B16:$AF16,AG$13)</f>
         <v>0</v>
@@ -2418,44 +2413,44 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AT16" s="80"/>
-      <c r="AU16" s="81"/>
+      <c r="AT16" s="126"/>
+      <c r="AU16" s="82"/>
     </row>
     <row r="17" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="131"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="131"/>
-      <c r="J17" s="131"/>
-      <c r="K17" s="131"/>
-      <c r="L17" s="131"/>
-      <c r="M17" s="131"/>
-      <c r="N17" s="131"/>
-      <c r="O17" s="131"/>
-      <c r="P17" s="131"/>
-      <c r="Q17" s="131"/>
-      <c r="R17" s="131"/>
-      <c r="S17" s="131"/>
-      <c r="T17" s="131"/>
-      <c r="U17" s="131"/>
-      <c r="V17" s="131"/>
-      <c r="W17" s="131"/>
-      <c r="X17" s="131"/>
-      <c r="Y17" s="131"/>
-      <c r="Z17" s="131"/>
-      <c r="AA17" s="131"/>
-      <c r="AB17" s="131"/>
-      <c r="AC17" s="131"/>
-      <c r="AD17" s="131"/>
-      <c r="AE17" s="131"/>
-      <c r="AF17" s="133"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="63"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="63"/>
+      <c r="V17" s="63"/>
+      <c r="W17" s="63"/>
+      <c r="X17" s="63"/>
+      <c r="Y17" s="63"/>
+      <c r="Z17" s="63"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="65"/>
       <c r="AG17" s="33">
         <f t="shared" ref="AG17:AS17" si="3">COUNTIF($B17:$AF17,AG$13)</f>
         <v>0</v>
@@ -2508,44 +2503,44 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AT17" s="80"/>
-      <c r="AU17" s="81"/>
+      <c r="AT17" s="126"/>
+      <c r="AU17" s="82"/>
     </row>
     <row r="18" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="131"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="131"/>
-      <c r="G18" s="131"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="131"/>
-      <c r="J18" s="131"/>
-      <c r="K18" s="131"/>
-      <c r="L18" s="131"/>
-      <c r="M18" s="131"/>
-      <c r="N18" s="131"/>
-      <c r="O18" s="131"/>
-      <c r="P18" s="131"/>
-      <c r="Q18" s="131"/>
-      <c r="R18" s="131"/>
-      <c r="S18" s="131"/>
-      <c r="T18" s="131"/>
-      <c r="U18" s="131"/>
-      <c r="V18" s="131"/>
-      <c r="W18" s="131"/>
-      <c r="X18" s="131"/>
-      <c r="Y18" s="131"/>
-      <c r="Z18" s="131"/>
-      <c r="AA18" s="131"/>
-      <c r="AB18" s="131"/>
-      <c r="AC18" s="131"/>
-      <c r="AD18" s="131"/>
-      <c r="AE18" s="131"/>
-      <c r="AF18" s="131"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="63"/>
+      <c r="T18" s="63"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
       <c r="AG18" s="33">
         <f t="shared" ref="AG18:AS18" si="4">COUNTIF($B18:$AF18,AG$13)</f>
         <v>0</v>
@@ -2598,44 +2593,44 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AT18" s="80"/>
-      <c r="AU18" s="81"/>
+      <c r="AT18" s="126"/>
+      <c r="AU18" s="82"/>
     </row>
-    <row r="19" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="1.2">
+    <row r="19" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="131"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="132"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="131"/>
-      <c r="K19" s="131"/>
-      <c r="L19" s="131"/>
-      <c r="M19" s="131"/>
-      <c r="N19" s="131"/>
-      <c r="O19" s="131"/>
-      <c r="P19" s="131"/>
-      <c r="Q19" s="131"/>
-      <c r="R19" s="131"/>
-      <c r="S19" s="131"/>
-      <c r="T19" s="131"/>
-      <c r="U19" s="131"/>
-      <c r="V19" s="132"/>
-      <c r="W19" s="131"/>
-      <c r="X19" s="131"/>
-      <c r="Y19" s="131"/>
-      <c r="Z19" s="131"/>
-      <c r="AA19" s="131"/>
-      <c r="AB19" s="131"/>
-      <c r="AC19" s="131"/>
-      <c r="AD19" s="131"/>
-      <c r="AE19" s="131"/>
-      <c r="AF19" s="134"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="63"/>
+      <c r="S19" s="63"/>
+      <c r="T19" s="63"/>
+      <c r="U19" s="63"/>
+      <c r="V19" s="64"/>
+      <c r="W19" s="63"/>
+      <c r="X19" s="63"/>
+      <c r="Y19" s="63"/>
+      <c r="Z19" s="63"/>
+      <c r="AA19" s="63"/>
+      <c r="AB19" s="63"/>
+      <c r="AC19" s="63"/>
+      <c r="AD19" s="63"/>
+      <c r="AE19" s="63"/>
+      <c r="AF19" s="66"/>
       <c r="AG19" s="33">
         <f t="shared" ref="AG19:AS19" si="5">COUNTIF($B19:$AF19,AG$13)</f>
         <v>0</v>
@@ -2688,44 +2683,44 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AT19" s="80"/>
-      <c r="AU19" s="81"/>
+      <c r="AT19" s="126"/>
+      <c r="AU19" s="82"/>
     </row>
     <row r="20" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="131"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="131"/>
-      <c r="G20" s="131"/>
-      <c r="H20" s="131"/>
-      <c r="I20" s="131"/>
-      <c r="J20" s="131"/>
-      <c r="K20" s="131"/>
-      <c r="L20" s="131"/>
-      <c r="M20" s="131"/>
-      <c r="N20" s="131"/>
-      <c r="O20" s="131"/>
-      <c r="P20" s="131"/>
-      <c r="Q20" s="131"/>
-      <c r="R20" s="131"/>
-      <c r="S20" s="131"/>
-      <c r="T20" s="131"/>
-      <c r="U20" s="131"/>
-      <c r="V20" s="131"/>
-      <c r="W20" s="131"/>
-      <c r="X20" s="131"/>
-      <c r="Y20" s="131"/>
-      <c r="Z20" s="131"/>
-      <c r="AA20" s="131"/>
-      <c r="AB20" s="131"/>
-      <c r="AC20" s="131"/>
-      <c r="AD20" s="131"/>
-      <c r="AE20" s="131"/>
-      <c r="AF20" s="131"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="63"/>
+      <c r="T20" s="63"/>
+      <c r="U20" s="63"/>
+      <c r="V20" s="63"/>
+      <c r="W20" s="63"/>
+      <c r="X20" s="63"/>
+      <c r="Y20" s="63"/>
+      <c r="Z20" s="63"/>
+      <c r="AA20" s="63"/>
+      <c r="AB20" s="63"/>
+      <c r="AC20" s="63"/>
+      <c r="AD20" s="63"/>
+      <c r="AE20" s="63"/>
+      <c r="AF20" s="63"/>
       <c r="AG20" s="33">
         <f t="shared" ref="AG20:AS20" si="6">COUNTIF($B20:$AF20,AG$13)</f>
         <v>0</v>
@@ -2778,44 +2773,44 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AT20" s="80"/>
-      <c r="AU20" s="81"/>
+      <c r="AT20" s="126"/>
+      <c r="AU20" s="82"/>
     </row>
     <row r="21" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="135"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="131"/>
-      <c r="H21" s="131"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="131"/>
-      <c r="K21" s="131"/>
-      <c r="L21" s="131"/>
-      <c r="M21" s="131"/>
-      <c r="N21" s="131"/>
-      <c r="O21" s="131"/>
-      <c r="P21" s="131"/>
-      <c r="Q21" s="131"/>
-      <c r="R21" s="131"/>
-      <c r="S21" s="131"/>
-      <c r="T21" s="131"/>
-      <c r="U21" s="131"/>
-      <c r="V21" s="131"/>
-      <c r="W21" s="131"/>
-      <c r="X21" s="131"/>
-      <c r="Y21" s="131"/>
-      <c r="Z21" s="131"/>
-      <c r="AA21" s="131"/>
-      <c r="AB21" s="131"/>
-      <c r="AC21" s="131"/>
-      <c r="AD21" s="131"/>
-      <c r="AE21" s="131"/>
-      <c r="AF21" s="131"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="63"/>
+      <c r="T21" s="63"/>
+      <c r="U21" s="63"/>
+      <c r="V21" s="63"/>
+      <c r="W21" s="63"/>
+      <c r="X21" s="63"/>
+      <c r="Y21" s="63"/>
+      <c r="Z21" s="63"/>
+      <c r="AA21" s="63"/>
+      <c r="AB21" s="63"/>
+      <c r="AC21" s="63"/>
+      <c r="AD21" s="63"/>
+      <c r="AE21" s="63"/>
+      <c r="AF21" s="63"/>
       <c r="AG21" s="33">
         <f t="shared" ref="AG21:AS21" si="7">COUNTIF($B21:$AF21,AG$13)</f>
         <v>0</v>
@@ -2868,44 +2863,44 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AT21" s="80"/>
-      <c r="AU21" s="81"/>
+      <c r="AT21" s="126"/>
+      <c r="AU21" s="82"/>
     </row>
     <row r="22" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="135"/>
-      <c r="C22" s="131"/>
-      <c r="D22" s="131"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="131"/>
-      <c r="G22" s="131"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="131"/>
-      <c r="K22" s="131"/>
-      <c r="L22" s="131"/>
-      <c r="M22" s="131"/>
-      <c r="N22" s="131"/>
-      <c r="O22" s="131"/>
-      <c r="P22" s="131"/>
-      <c r="Q22" s="131"/>
-      <c r="R22" s="131"/>
-      <c r="S22" s="131"/>
-      <c r="T22" s="131"/>
-      <c r="U22" s="131"/>
-      <c r="V22" s="131"/>
-      <c r="W22" s="131"/>
-      <c r="X22" s="131"/>
-      <c r="Y22" s="131"/>
-      <c r="Z22" s="131"/>
-      <c r="AA22" s="131"/>
-      <c r="AB22" s="131"/>
-      <c r="AC22" s="131"/>
-      <c r="AD22" s="131"/>
-      <c r="AE22" s="131"/>
-      <c r="AF22" s="134"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="63"/>
+      <c r="S22" s="63"/>
+      <c r="T22" s="63"/>
+      <c r="U22" s="63"/>
+      <c r="V22" s="63"/>
+      <c r="W22" s="63"/>
+      <c r="X22" s="63"/>
+      <c r="Y22" s="63"/>
+      <c r="Z22" s="63"/>
+      <c r="AA22" s="63"/>
+      <c r="AB22" s="63"/>
+      <c r="AC22" s="63"/>
+      <c r="AD22" s="63"/>
+      <c r="AE22" s="63"/>
+      <c r="AF22" s="66"/>
       <c r="AG22" s="33">
         <f t="shared" ref="AG22:AS22" si="8">COUNTIF($B22:$AF22,AG$13)</f>
         <v>0</v>
@@ -2958,44 +2953,44 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AT22" s="80"/>
-      <c r="AU22" s="81"/>
+      <c r="AT22" s="126"/>
+      <c r="AU22" s="82"/>
     </row>
     <row r="23" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="135"/>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="131"/>
-      <c r="H23" s="131"/>
-      <c r="I23" s="131"/>
-      <c r="J23" s="131"/>
-      <c r="K23" s="131"/>
-      <c r="L23" s="131"/>
-      <c r="M23" s="131"/>
-      <c r="N23" s="131"/>
-      <c r="O23" s="131"/>
-      <c r="P23" s="131"/>
-      <c r="Q23" s="131"/>
-      <c r="R23" s="131"/>
-      <c r="S23" s="131"/>
-      <c r="T23" s="131"/>
-      <c r="U23" s="131"/>
-      <c r="V23" s="131"/>
-      <c r="W23" s="131"/>
-      <c r="X23" s="131"/>
-      <c r="Y23" s="131"/>
-      <c r="Z23" s="131"/>
-      <c r="AA23" s="131"/>
-      <c r="AB23" s="131"/>
-      <c r="AC23" s="131"/>
-      <c r="AD23" s="131"/>
-      <c r="AE23" s="131"/>
-      <c r="AF23" s="131"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="63"/>
+      <c r="S23" s="63"/>
+      <c r="T23" s="63"/>
+      <c r="U23" s="63"/>
+      <c r="V23" s="63"/>
+      <c r="W23" s="63"/>
+      <c r="X23" s="63"/>
+      <c r="Y23" s="63"/>
+      <c r="Z23" s="63"/>
+      <c r="AA23" s="63"/>
+      <c r="AB23" s="63"/>
+      <c r="AC23" s="63"/>
+      <c r="AD23" s="63"/>
+      <c r="AE23" s="63"/>
+      <c r="AF23" s="63"/>
       <c r="AG23" s="33">
         <f t="shared" ref="AG23:AS23" si="9">COUNTIF($B23:$AF23,AG$13)</f>
         <v>0</v>
@@ -3048,44 +3043,44 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AT23" s="80"/>
-      <c r="AU23" s="81"/>
+      <c r="AT23" s="126"/>
+      <c r="AU23" s="82"/>
     </row>
     <row r="24" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="131"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="131"/>
-      <c r="H24" s="131"/>
-      <c r="I24" s="131"/>
-      <c r="J24" s="131"/>
-      <c r="K24" s="131"/>
-      <c r="L24" s="131"/>
-      <c r="M24" s="131"/>
-      <c r="N24" s="131"/>
-      <c r="O24" s="131"/>
-      <c r="P24" s="131"/>
-      <c r="Q24" s="131"/>
-      <c r="R24" s="131"/>
-      <c r="S24" s="131"/>
-      <c r="T24" s="131"/>
-      <c r="U24" s="131"/>
-      <c r="V24" s="131"/>
-      <c r="W24" s="131"/>
-      <c r="X24" s="131"/>
-      <c r="Y24" s="131"/>
-      <c r="Z24" s="131"/>
-      <c r="AA24" s="131"/>
-      <c r="AB24" s="131"/>
-      <c r="AC24" s="131"/>
-      <c r="AD24" s="131"/>
-      <c r="AE24" s="131"/>
-      <c r="AF24" s="136"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="63"/>
+      <c r="R24" s="63"/>
+      <c r="S24" s="63"/>
+      <c r="T24" s="63"/>
+      <c r="U24" s="63"/>
+      <c r="V24" s="63"/>
+      <c r="W24" s="63"/>
+      <c r="X24" s="63"/>
+      <c r="Y24" s="63"/>
+      <c r="Z24" s="63"/>
+      <c r="AA24" s="63"/>
+      <c r="AB24" s="63"/>
+      <c r="AC24" s="63"/>
+      <c r="AD24" s="63"/>
+      <c r="AE24" s="63"/>
+      <c r="AF24" s="68"/>
       <c r="AG24" s="33">
         <f t="shared" ref="AG24:AS24" si="10">COUNTIF($B24:$AF24,AG$13)</f>
         <v>0</v>
@@ -3138,44 +3133,44 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AT24" s="80"/>
-      <c r="AU24" s="81"/>
+      <c r="AT24" s="126"/>
+      <c r="AU24" s="82"/>
     </row>
     <row r="25" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="135"/>
-      <c r="C25" s="131"/>
-      <c r="D25" s="131"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="131"/>
-      <c r="G25" s="131"/>
-      <c r="H25" s="131"/>
-      <c r="I25" s="131"/>
-      <c r="J25" s="131"/>
-      <c r="K25" s="131"/>
-      <c r="L25" s="131"/>
-      <c r="M25" s="131"/>
-      <c r="N25" s="131"/>
-      <c r="O25" s="131"/>
-      <c r="P25" s="131"/>
-      <c r="Q25" s="131"/>
-      <c r="R25" s="131"/>
-      <c r="S25" s="131"/>
-      <c r="T25" s="131"/>
-      <c r="U25" s="131"/>
-      <c r="V25" s="131"/>
-      <c r="W25" s="131"/>
-      <c r="X25" s="131"/>
-      <c r="Y25" s="131"/>
-      <c r="Z25" s="131"/>
-      <c r="AA25" s="131"/>
-      <c r="AB25" s="131"/>
-      <c r="AC25" s="131"/>
-      <c r="AD25" s="131"/>
-      <c r="AE25" s="131"/>
-      <c r="AF25" s="131"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="63"/>
+      <c r="T25" s="63"/>
+      <c r="U25" s="63"/>
+      <c r="V25" s="63"/>
+      <c r="W25" s="63"/>
+      <c r="X25" s="63"/>
+      <c r="Y25" s="63"/>
+      <c r="Z25" s="63"/>
+      <c r="AA25" s="63"/>
+      <c r="AB25" s="63"/>
+      <c r="AC25" s="63"/>
+      <c r="AD25" s="63"/>
+      <c r="AE25" s="63"/>
+      <c r="AF25" s="63"/>
       <c r="AG25" s="41">
         <f t="shared" ref="AG25:AS25" si="11">COUNTIF($B25:$AF25,AG$13)</f>
         <v>0</v>
@@ -3228,8 +3223,8 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AT25" s="83"/>
-      <c r="AU25" s="84"/>
+      <c r="AT25" s="128"/>
+      <c r="AU25" s="86"/>
     </row>
     <row r="26" spans="1:47" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="48"/>
@@ -3256,12 +3251,12 @@
       <c r="V26" s="49"/>
       <c r="W26" s="49"/>
       <c r="X26" s="49"/>
-      <c r="Y26" s="82"/>
-      <c r="Z26" s="64"/>
-      <c r="AA26" s="64"/>
-      <c r="AB26" s="64"/>
-      <c r="AC26" s="64"/>
-      <c r="AD26" s="64"/>
+      <c r="Y26" s="127"/>
+      <c r="Z26" s="70"/>
+      <c r="AA26" s="70"/>
+      <c r="AB26" s="70"/>
+      <c r="AC26" s="70"/>
+      <c r="AD26" s="70"/>
       <c r="AE26" s="49"/>
       <c r="AF26" s="49"/>
       <c r="AG26" s="50">
@@ -3316,39 +3311,39 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AT26" s="85">
+      <c r="AT26" s="129">
         <f>AG26+AI26-AH26</f>
         <v>0</v>
       </c>
-      <c r="AU26" s="71"/>
+      <c r="AU26" s="91"/>
     </row>
     <row r="27" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="64"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="68"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="133"/>
+      <c r="H27" s="133"/>
+      <c r="I27" s="133"/>
+      <c r="J27" s="89"/>
       <c r="M27" s="57"/>
     </row>
     <row r="28" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="64"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="71"/>
-      <c r="M28" s="72"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="131"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="134"/>
+      <c r="F28" s="134"/>
+      <c r="G28" s="134"/>
+      <c r="H28" s="134"/>
+      <c r="I28" s="134"/>
+      <c r="J28" s="91"/>
+      <c r="M28" s="135"/>
       <c r="N28" s="73"/>
       <c r="O28" s="73"/>
       <c r="P28" s="73"/>
@@ -3356,72 +3351,72 @@
       <c r="R28" s="73"/>
       <c r="S28" s="73"/>
       <c r="T28" s="74"/>
-      <c r="V28" s="75" t="s">
+      <c r="V28" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="W28" s="76"/>
-      <c r="X28" s="76"/>
-      <c r="Y28" s="77" t="s">
+      <c r="W28" s="109"/>
+      <c r="X28" s="109"/>
+      <c r="Y28" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="Z28" s="78"/>
-      <c r="AA28" s="78"/>
-      <c r="AB28" s="78"/>
-      <c r="AC28" s="78"/>
-      <c r="AD28" s="78"/>
-      <c r="AE28" s="78"/>
-      <c r="AF28" s="78"/>
-      <c r="AG28" s="78"/>
-      <c r="AH28" s="78"/>
-      <c r="AI28" s="78"/>
-      <c r="AJ28" s="78"/>
-      <c r="AK28" s="78"/>
-      <c r="AL28" s="78"/>
-      <c r="AM28" s="78"/>
-      <c r="AN28" s="78"/>
-      <c r="AO28" s="78"/>
-      <c r="AP28" s="78"/>
-      <c r="AQ28" s="78"/>
-      <c r="AR28" s="78"/>
-      <c r="AS28" s="78"/>
-      <c r="AT28" s="78"/>
-      <c r="AU28" s="79"/>
+      <c r="Z28" s="77"/>
+      <c r="AA28" s="77"/>
+      <c r="AB28" s="77"/>
+      <c r="AC28" s="77"/>
+      <c r="AD28" s="77"/>
+      <c r="AE28" s="77"/>
+      <c r="AF28" s="77"/>
+      <c r="AG28" s="77"/>
+      <c r="AH28" s="77"/>
+      <c r="AI28" s="77"/>
+      <c r="AJ28" s="77"/>
+      <c r="AK28" s="77"/>
+      <c r="AL28" s="77"/>
+      <c r="AM28" s="77"/>
+      <c r="AN28" s="77"/>
+      <c r="AO28" s="77"/>
+      <c r="AP28" s="77"/>
+      <c r="AQ28" s="77"/>
+      <c r="AR28" s="77"/>
+      <c r="AS28" s="77"/>
+      <c r="AT28" s="77"/>
+      <c r="AU28" s="125"/>
     </row>
     <row r="29" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="V29" s="77"/>
-      <c r="W29" s="78"/>
-      <c r="X29" s="78"/>
-      <c r="Y29" s="125"/>
-      <c r="Z29" s="78"/>
-      <c r="AA29" s="78"/>
-      <c r="AB29" s="78"/>
-      <c r="AC29" s="78"/>
-      <c r="AD29" s="78"/>
-      <c r="AE29" s="78"/>
-      <c r="AF29" s="78"/>
-      <c r="AG29" s="78"/>
-      <c r="AH29" s="78"/>
-      <c r="AI29" s="78"/>
-      <c r="AJ29" s="78"/>
-      <c r="AK29" s="78"/>
-      <c r="AL29" s="78"/>
-      <c r="AM29" s="78"/>
-      <c r="AN29" s="78"/>
-      <c r="AO29" s="78"/>
-      <c r="AP29" s="78"/>
-      <c r="AQ29" s="78"/>
-      <c r="AR29" s="78"/>
-      <c r="AS29" s="78"/>
-      <c r="AT29" s="78"/>
-      <c r="AU29" s="126"/>
+      <c r="V29" s="76"/>
+      <c r="W29" s="77"/>
+      <c r="X29" s="77"/>
+      <c r="Y29" s="78"/>
+      <c r="Z29" s="77"/>
+      <c r="AA29" s="77"/>
+      <c r="AB29" s="77"/>
+      <c r="AC29" s="77"/>
+      <c r="AD29" s="77"/>
+      <c r="AE29" s="77"/>
+      <c r="AF29" s="77"/>
+      <c r="AG29" s="77"/>
+      <c r="AH29" s="77"/>
+      <c r="AI29" s="77"/>
+      <c r="AJ29" s="77"/>
+      <c r="AK29" s="77"/>
+      <c r="AL29" s="77"/>
+      <c r="AM29" s="77"/>
+      <c r="AN29" s="77"/>
+      <c r="AO29" s="77"/>
+      <c r="AP29" s="77"/>
+      <c r="AQ29" s="77"/>
+      <c r="AR29" s="77"/>
+      <c r="AS29" s="77"/>
+      <c r="AT29" s="77"/>
+      <c r="AU29" s="79"/>
     </row>
     <row r="30" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="129" t="s">
+      <c r="A30" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="64"/>
+      <c r="B30" s="70"/>
       <c r="C30" s="58"/>
-      <c r="D30" s="127"/>
+      <c r="D30" s="80"/>
       <c r="E30" s="73"/>
       <c r="F30" s="73"/>
       <c r="G30" s="73"/>
@@ -3436,10 +3431,10 @@
       <c r="P30" s="73"/>
       <c r="Q30" s="73"/>
       <c r="R30" s="74"/>
-      <c r="V30" s="117"/>
+      <c r="V30" s="75"/>
       <c r="W30" s="73"/>
       <c r="X30" s="73"/>
-      <c r="Y30" s="128" t="s">
+      <c r="Y30" s="81" t="s">
         <v>37</v>
       </c>
       <c r="Z30" s="73"/>
@@ -3463,13 +3458,13 @@
       <c r="AR30" s="73"/>
       <c r="AS30" s="73"/>
       <c r="AT30" s="73"/>
-      <c r="AU30" s="81"/>
+      <c r="AU30" s="82"/>
     </row>
     <row r="31" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V31" s="117"/>
+      <c r="V31" s="75"/>
       <c r="W31" s="73"/>
       <c r="X31" s="73"/>
-      <c r="Y31" s="117"/>
+      <c r="Y31" s="75"/>
       <c r="Z31" s="73"/>
       <c r="AA31" s="73"/>
       <c r="AB31" s="73"/>
@@ -3491,14 +3486,14 @@
       <c r="AR31" s="73"/>
       <c r="AS31" s="73"/>
       <c r="AT31" s="73"/>
-      <c r="AU31" s="81"/>
+      <c r="AU31" s="82"/>
     </row>
     <row r="32" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="93" t="s">
+      <c r="A32" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="64"/>
-      <c r="D32" s="130"/>
+      <c r="B32" s="70"/>
+      <c r="D32" s="72"/>
       <c r="E32" s="73"/>
       <c r="F32" s="73"/>
       <c r="G32" s="73"/>
@@ -3508,10 +3503,10 @@
       <c r="K32" s="73"/>
       <c r="L32" s="73"/>
       <c r="M32" s="74"/>
-      <c r="V32" s="117"/>
+      <c r="V32" s="75"/>
       <c r="W32" s="73"/>
       <c r="X32" s="73"/>
-      <c r="Y32" s="117"/>
+      <c r="Y32" s="75"/>
       <c r="Z32" s="73"/>
       <c r="AA32" s="73"/>
       <c r="AB32" s="73"/>
@@ -3533,7 +3528,7 @@
       <c r="AR32" s="73"/>
       <c r="AS32" s="73"/>
       <c r="AT32" s="73"/>
-      <c r="AU32" s="81"/>
+      <c r="AU32" s="82"/>
     </row>
     <row r="33" spans="2:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="2"/>
@@ -3547,10 +3542,10 @@
       <c r="J33" s="59"/>
       <c r="K33" s="59"/>
       <c r="L33" s="59"/>
-      <c r="V33" s="117"/>
+      <c r="V33" s="75"/>
       <c r="W33" s="73"/>
       <c r="X33" s="73"/>
-      <c r="Y33" s="124"/>
+      <c r="Y33" s="92"/>
       <c r="Z33" s="73"/>
       <c r="AA33" s="73"/>
       <c r="AB33" s="73"/>
@@ -3572,39 +3567,39 @@
       <c r="AR33" s="73"/>
       <c r="AS33" s="73"/>
       <c r="AT33" s="73"/>
-      <c r="AU33" s="81"/>
+      <c r="AU33" s="82"/>
     </row>
     <row r="34" spans="2:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="115" t="s">
+      <c r="B34" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="H34" s="119" t="s">
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="H34" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="I34" s="68"/>
+      <c r="I34" s="89"/>
       <c r="J34" s="61"/>
       <c r="K34" s="61"/>
       <c r="L34" s="61"/>
-      <c r="M34" s="115" t="s">
+      <c r="M34" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="N34" s="64"/>
-      <c r="O34" s="64"/>
-      <c r="P34" s="64"/>
-      <c r="Q34" s="64"/>
+      <c r="N34" s="70"/>
+      <c r="O34" s="70"/>
+      <c r="P34" s="70"/>
+      <c r="Q34" s="70"/>
       <c r="R34" s="62"/>
-      <c r="S34" s="116" t="s">
+      <c r="S34" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="T34" s="68"/>
-      <c r="V34" s="117"/>
+      <c r="T34" s="89"/>
+      <c r="V34" s="75"/>
       <c r="W34" s="73"/>
       <c r="X34" s="73"/>
-      <c r="Y34" s="118"/>
+      <c r="Y34" s="93"/>
       <c r="Z34" s="73"/>
       <c r="AA34" s="73"/>
       <c r="AB34" s="73"/>
@@ -3626,56 +3621,56 @@
       <c r="AR34" s="73"/>
       <c r="AS34" s="73"/>
       <c r="AT34" s="73"/>
-      <c r="AU34" s="81"/>
+      <c r="AU34" s="82"/>
     </row>
     <row r="35" spans="2:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="H35" s="120" t="e">
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="H35" s="95" t="e">
         <f>H34+AG26+AI26-AH26</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I35" s="71"/>
+      <c r="I35" s="91"/>
       <c r="J35" s="60"/>
       <c r="K35" s="60"/>
       <c r="L35" s="60"/>
-      <c r="M35" s="64"/>
-      <c r="N35" s="64"/>
-      <c r="O35" s="64"/>
-      <c r="P35" s="64"/>
-      <c r="Q35" s="64"/>
+      <c r="M35" s="70"/>
+      <c r="N35" s="70"/>
+      <c r="O35" s="70"/>
+      <c r="P35" s="70"/>
+      <c r="Q35" s="70"/>
       <c r="R35" s="62"/>
-      <c r="S35" s="69"/>
-      <c r="T35" s="71"/>
-      <c r="V35" s="121"/>
-      <c r="W35" s="122"/>
-      <c r="X35" s="122"/>
-      <c r="Y35" s="123"/>
-      <c r="Z35" s="122"/>
-      <c r="AA35" s="122"/>
-      <c r="AB35" s="122"/>
-      <c r="AC35" s="122"/>
-      <c r="AD35" s="122"/>
-      <c r="AE35" s="122"/>
-      <c r="AF35" s="122"/>
-      <c r="AG35" s="122"/>
-      <c r="AH35" s="122"/>
-      <c r="AI35" s="122"/>
-      <c r="AJ35" s="122"/>
-      <c r="AK35" s="122"/>
-      <c r="AL35" s="122"/>
-      <c r="AM35" s="122"/>
-      <c r="AN35" s="122"/>
-      <c r="AO35" s="122"/>
-      <c r="AP35" s="122"/>
-      <c r="AQ35" s="122"/>
-      <c r="AR35" s="122"/>
-      <c r="AS35" s="122"/>
-      <c r="AT35" s="122"/>
-      <c r="AU35" s="84"/>
+      <c r="S35" s="90"/>
+      <c r="T35" s="91"/>
+      <c r="V35" s="83"/>
+      <c r="W35" s="84"/>
+      <c r="X35" s="84"/>
+      <c r="Y35" s="85"/>
+      <c r="Z35" s="84"/>
+      <c r="AA35" s="84"/>
+      <c r="AB35" s="84"/>
+      <c r="AC35" s="84"/>
+      <c r="AD35" s="84"/>
+      <c r="AE35" s="84"/>
+      <c r="AF35" s="84"/>
+      <c r="AG35" s="84"/>
+      <c r="AH35" s="84"/>
+      <c r="AI35" s="84"/>
+      <c r="AJ35" s="84"/>
+      <c r="AK35" s="84"/>
+      <c r="AL35" s="84"/>
+      <c r="AM35" s="84"/>
+      <c r="AN35" s="84"/>
+      <c r="AO35" s="84"/>
+      <c r="AP35" s="84"/>
+      <c r="AQ35" s="84"/>
+      <c r="AR35" s="84"/>
+      <c r="AS35" s="84"/>
+      <c r="AT35" s="84"/>
+      <c r="AU35" s="86"/>
     </row>
     <row r="36" spans="2:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V36" s="5"/>
@@ -3706,24 +3701,24 @@
       <c r="AU36" s="5"/>
     </row>
     <row r="37" spans="2:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N37" s="115" t="s">
+      <c r="N37" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="O37" s="64"/>
-      <c r="P37" s="64"/>
-      <c r="Q37" s="64"/>
-      <c r="S37" s="116" t="s">
+      <c r="O37" s="70"/>
+      <c r="P37" s="70"/>
+      <c r="Q37" s="70"/>
+      <c r="S37" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="T37" s="68"/>
+      <c r="T37" s="89"/>
     </row>
     <row r="38" spans="2:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N38" s="64"/>
-      <c r="O38" s="64"/>
-      <c r="P38" s="64"/>
-      <c r="Q38" s="64"/>
-      <c r="S38" s="69"/>
-      <c r="T38" s="71"/>
+      <c r="N38" s="70"/>
+      <c r="O38" s="70"/>
+      <c r="P38" s="70"/>
+      <c r="Q38" s="70"/>
+      <c r="S38" s="90"/>
+      <c r="T38" s="91"/>
     </row>
     <row r="39" spans="2:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4689,31 +4684,41 @@
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="Y29:AU29"/>
-    <mergeCell ref="D30:R30"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="Y30:AU30"/>
-    <mergeCell ref="Y31:AU31"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="Y35:AU35"/>
-    <mergeCell ref="N37:Q38"/>
-    <mergeCell ref="S37:T38"/>
-    <mergeCell ref="Y32:AU32"/>
-    <mergeCell ref="Y33:AU33"/>
-    <mergeCell ref="B34:F35"/>
-    <mergeCell ref="M34:Q35"/>
-    <mergeCell ref="S34:T35"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="Y34:AU34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A27:C28"/>
+    <mergeCell ref="D27:J28"/>
+    <mergeCell ref="M28:T28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="Y28:AU28"/>
+    <mergeCell ref="AT21:AU21"/>
+    <mergeCell ref="AT22:AU22"/>
+    <mergeCell ref="AT23:AU23"/>
+    <mergeCell ref="AT24:AU24"/>
+    <mergeCell ref="Y26:AD26"/>
+    <mergeCell ref="AT25:AU25"/>
+    <mergeCell ref="AT26:AU26"/>
+    <mergeCell ref="AT16:AU16"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="AT18:AU18"/>
+    <mergeCell ref="AT19:AU19"/>
+    <mergeCell ref="AT20:AU20"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AT13:AU13"/>
+    <mergeCell ref="AT14:AU14"/>
+    <mergeCell ref="AT15:AU15"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="B10:X10"/>
+    <mergeCell ref="AB8:AE8"/>
+    <mergeCell ref="AG8:AJ8"/>
+    <mergeCell ref="AB9:AF9"/>
+    <mergeCell ref="AG9:AM9"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="AG10:AJ10"/>
+    <mergeCell ref="B7:N7"/>
+    <mergeCell ref="B8:N8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="V8:W8"/>
     <mergeCell ref="M2:AC3"/>
     <mergeCell ref="AI4:AN4"/>
     <mergeCell ref="AO4:AT4"/>
@@ -4722,41 +4727,31 @@
     <mergeCell ref="AB6:AE6"/>
     <mergeCell ref="AG6:AJ6"/>
     <mergeCell ref="B6:N6"/>
-    <mergeCell ref="B7:N7"/>
-    <mergeCell ref="B8:N8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="B10:X10"/>
-    <mergeCell ref="AB8:AE8"/>
-    <mergeCell ref="AG8:AJ8"/>
-    <mergeCell ref="AB9:AF9"/>
-    <mergeCell ref="AG9:AM9"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="AG10:AJ10"/>
-    <mergeCell ref="AB11:AE11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AT13:AU13"/>
-    <mergeCell ref="AT14:AU14"/>
-    <mergeCell ref="AT15:AU15"/>
-    <mergeCell ref="AT16:AU16"/>
-    <mergeCell ref="AT17:AU17"/>
-    <mergeCell ref="AT18:AU18"/>
-    <mergeCell ref="AT19:AU19"/>
-    <mergeCell ref="AT20:AU20"/>
-    <mergeCell ref="AT21:AU21"/>
-    <mergeCell ref="AT22:AU22"/>
-    <mergeCell ref="AT23:AU23"/>
-    <mergeCell ref="AT24:AU24"/>
-    <mergeCell ref="Y26:AD26"/>
-    <mergeCell ref="AT25:AU25"/>
-    <mergeCell ref="AT26:AU26"/>
-    <mergeCell ref="A27:C28"/>
-    <mergeCell ref="D27:J28"/>
-    <mergeCell ref="M28:T28"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="Y28:AU28"/>
+    <mergeCell ref="B34:F35"/>
+    <mergeCell ref="M34:Q35"/>
+    <mergeCell ref="S34:T35"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="Y34:AU34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="Y31:AU31"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="Y35:AU35"/>
+    <mergeCell ref="N37:Q38"/>
+    <mergeCell ref="S37:T38"/>
+    <mergeCell ref="Y32:AU32"/>
+    <mergeCell ref="Y33:AU33"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="Y29:AU29"/>
+    <mergeCell ref="D30:R30"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="Y30:AU30"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="V31:X31"/>
   </mergeCells>
   <conditionalFormatting sqref="H35:I35">
     <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="lessThan">
